--- a/WorkLibary/bin/Debug/net7.0/AAA.xlsx
+++ b/WorkLibary/bin/Debug/net7.0/AAA.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
   <si>
     <t>Утренние заказы</t>
   </si>
@@ -23,6 +23,15 @@
     <t>Вечерние заказы</t>
   </si>
   <si>
+    <t>Утренние заказы без наборов</t>
+  </si>
+  <si>
+    <t>Дневные заказы без наборов</t>
+  </si>
+  <si>
+    <t>Вечерние заказы без наборов</t>
+  </si>
+  <si>
     <t>Свинина жареная на углях с овощами в лаваше</t>
   </si>
   <si>
@@ -48,6 +57,66 @@
   </si>
   <si>
     <t>Люля-кебаб говядина свинина с овощами в лаваше</t>
+  </si>
+  <si>
+    <t>Суп-пюре шпинатный</t>
+  </si>
+  <si>
+    <t>Суп-пюре грибной</t>
+  </si>
+  <si>
+    <t>Суп-пюре тыквенный</t>
+  </si>
+  <si>
+    <t>Слойка "Яблочный штрудель"</t>
+  </si>
+  <si>
+    <t>Кекс морковный</t>
+  </si>
+  <si>
+    <t>Круассан с шоколадом</t>
+  </si>
+  <si>
+    <t>Пирожок с творогом</t>
+  </si>
+  <si>
+    <t>Пирожок с творогом и вишней</t>
+  </si>
+  <si>
+    <t>Розочка с яблоками и вишней</t>
+  </si>
+  <si>
+    <t>ТОП-менеджер #1 (грибной суп-пюре, говядина су-вид, штрудель)</t>
+  </si>
+  <si>
+    <t>ТОП-менеджер #2 (грибной суп-пюре, свинина, штрудель)</t>
+  </si>
+  <si>
+    <t>Бизнес-леди #1 (тыквенный суп-пюре, креветка, круассан)</t>
+  </si>
+  <si>
+    <t>Бизнес-леди #2 (тыквенный суп-пюре, курица, круассан)</t>
+  </si>
+  <si>
+    <t>ФРИЛАНСЕР #1 (грибной суп-пюре, курица, розочка)</t>
+  </si>
+  <si>
+    <t>ФРИЛАНСЕР #2 (грибной суп-пюре, кебаб (гов-свин), розочка)</t>
+  </si>
+  <si>
+    <t>ГЕЙМЕР #1 (грибной суп-пюре, кебаб (гов-свин), пирожок с творогом и вишней)</t>
+  </si>
+  <si>
+    <t>ГЕЙМЕР #2 (грибной суп-пюре, кебаб (гов-кур), пирожок с творогом и вишней)</t>
+  </si>
+  <si>
+    <t>Веган #1 (шпинатный суп-пюре, фалафель нут, морковный кекс)</t>
+  </si>
+  <si>
+    <t>Веган #2 (шпинатный суп-пюре, фалафель греча, морковный кекс)</t>
+  </si>
+  <si>
+    <t>Веган #3 (шпинатный суп-пюре, фалафель фасоль, морковный кекс)</t>
   </si>
 </sst>
 </file>
@@ -93,7 +162,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:G30"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -109,10 +178,19 @@
       <c r="D1" s="0" t="s">
         <v>2</v>
       </c>
+      <c r="E1" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="0" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B2" s="0">
         <v>0</v>
@@ -123,10 +201,19 @@
       <c r="D2" s="0">
         <v>1</v>
       </c>
+      <c r="E2" s="0">
+        <v>0</v>
+      </c>
+      <c r="F2" s="0">
+        <v>0</v>
+      </c>
+      <c r="G2" s="0">
+        <v>1</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B3" s="0">
         <v>0</v>
@@ -137,10 +224,19 @@
       <c r="D3" s="0">
         <v>2</v>
       </c>
+      <c r="E3" s="0">
+        <v>0</v>
+      </c>
+      <c r="F3" s="0">
+        <v>2</v>
+      </c>
+      <c r="G3" s="0">
+        <v>5</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B4" s="0">
         <v>0</v>
@@ -150,11 +246,20 @@
       </c>
       <c r="D4" s="0">
         <v>1</v>
+      </c>
+      <c r="E4" s="0">
+        <v>0</v>
+      </c>
+      <c r="F4" s="0">
+        <v>0</v>
+      </c>
+      <c r="G4" s="0">
+        <v>0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B5" s="0">
         <v>0</v>
@@ -165,10 +270,19 @@
       <c r="D5" s="0">
         <v>2</v>
       </c>
+      <c r="E5" s="0">
+        <v>0</v>
+      </c>
+      <c r="F5" s="0">
+        <v>2</v>
+      </c>
+      <c r="G5" s="0">
+        <v>1</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B6" s="0">
         <v>0</v>
@@ -177,12 +291,21 @@
         <v>1</v>
       </c>
       <c r="D6" s="0">
+        <v>0</v>
+      </c>
+      <c r="E6" s="0">
+        <v>0</v>
+      </c>
+      <c r="F6" s="0">
+        <v>0</v>
+      </c>
+      <c r="G6" s="0">
         <v>0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B7" s="0">
         <v>0</v>
@@ -191,12 +314,21 @@
         <v>0</v>
       </c>
       <c r="D7" s="0">
+        <v>0</v>
+      </c>
+      <c r="E7" s="0">
+        <v>0</v>
+      </c>
+      <c r="F7" s="0">
+        <v>0</v>
+      </c>
+      <c r="G7" s="0">
         <v>0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B8" s="0">
         <v>0</v>
@@ -205,12 +337,21 @@
         <v>0</v>
       </c>
       <c r="D8" s="0">
+        <v>0</v>
+      </c>
+      <c r="E8" s="0">
+        <v>0</v>
+      </c>
+      <c r="F8" s="0">
+        <v>0</v>
+      </c>
+      <c r="G8" s="0">
         <v>0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B9" s="0">
         <v>0</v>
@@ -220,11 +361,20 @@
       </c>
       <c r="D9" s="0">
         <v>1</v>
+      </c>
+      <c r="E9" s="0">
+        <v>0</v>
+      </c>
+      <c r="F9" s="0">
+        <v>0</v>
+      </c>
+      <c r="G9" s="0">
+        <v>0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B10" s="0">
         <v>0</v>
@@ -233,6 +383,475 @@
         <v>0</v>
       </c>
       <c r="D10" s="0">
+        <v>0</v>
+      </c>
+      <c r="E10" s="0">
+        <v>0</v>
+      </c>
+      <c r="F10" s="0">
+        <v>0</v>
+      </c>
+      <c r="G10" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" s="0">
+        <v>0</v>
+      </c>
+      <c r="C11" s="0">
+        <v>2</v>
+      </c>
+      <c r="D11" s="0">
+        <v>0</v>
+      </c>
+      <c r="E11" s="0">
+        <v>0</v>
+      </c>
+      <c r="F11" s="0">
+        <v>0</v>
+      </c>
+      <c r="G11" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" s="0">
+        <v>0</v>
+      </c>
+      <c r="C12" s="0">
+        <v>5</v>
+      </c>
+      <c r="D12" s="0">
+        <v>1</v>
+      </c>
+      <c r="E12" s="0">
+        <v>0</v>
+      </c>
+      <c r="F12" s="0">
+        <v>2</v>
+      </c>
+      <c r="G12" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13" s="0">
+        <v>0</v>
+      </c>
+      <c r="C13" s="0">
+        <v>6</v>
+      </c>
+      <c r="D13" s="0">
+        <v>2</v>
+      </c>
+      <c r="E13" s="0">
+        <v>0</v>
+      </c>
+      <c r="F13" s="0">
+        <v>2</v>
+      </c>
+      <c r="G13" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="B14" s="0">
+        <v>0</v>
+      </c>
+      <c r="C14" s="0">
+        <v>8</v>
+      </c>
+      <c r="D14" s="0">
+        <v>5</v>
+      </c>
+      <c r="E14" s="0">
+        <v>0</v>
+      </c>
+      <c r="F14" s="0">
+        <v>2</v>
+      </c>
+      <c r="G14" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="B15" s="0">
+        <v>0</v>
+      </c>
+      <c r="C15" s="0">
+        <v>0</v>
+      </c>
+      <c r="D15" s="0">
+        <v>0</v>
+      </c>
+      <c r="E15" s="0">
+        <v>0</v>
+      </c>
+      <c r="F15" s="0">
+        <v>0</v>
+      </c>
+      <c r="G15" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="B16" s="0">
+        <v>0</v>
+      </c>
+      <c r="C16" s="0">
+        <v>7</v>
+      </c>
+      <c r="D16" s="0">
+        <v>2</v>
+      </c>
+      <c r="E16" s="0">
+        <v>0</v>
+      </c>
+      <c r="F16" s="0">
+        <v>2</v>
+      </c>
+      <c r="G16" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="B17" s="0">
+        <v>0</v>
+      </c>
+      <c r="C17" s="0">
+        <v>1</v>
+      </c>
+      <c r="D17" s="0">
+        <v>0</v>
+      </c>
+      <c r="E17" s="0">
+        <v>0</v>
+      </c>
+      <c r="F17" s="0">
+        <v>0</v>
+      </c>
+      <c r="G17" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" s="0">
+        <v>0</v>
+      </c>
+      <c r="C18" s="0">
+        <v>2</v>
+      </c>
+      <c r="D18" s="0">
+        <v>0</v>
+      </c>
+      <c r="E18" s="0">
+        <v>0</v>
+      </c>
+      <c r="F18" s="0">
+        <v>0</v>
+      </c>
+      <c r="G18" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" s="0">
+        <v>0</v>
+      </c>
+      <c r="C19" s="0">
+        <v>0</v>
+      </c>
+      <c r="D19" s="0">
+        <v>0</v>
+      </c>
+      <c r="E19" s="0">
+        <v>0</v>
+      </c>
+      <c r="F19" s="0">
+        <v>0</v>
+      </c>
+      <c r="G19" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" s="0">
+        <v>0</v>
+      </c>
+      <c r="C20" s="0">
+        <v>2</v>
+      </c>
+      <c r="D20" s="0">
+        <v>5</v>
+      </c>
+      <c r="E20" s="0">
+        <v>0</v>
+      </c>
+      <c r="F20" s="0">
+        <v>0</v>
+      </c>
+      <c r="G20" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="B21" s="0">
+        <v>0</v>
+      </c>
+      <c r="C21" s="0">
+        <v>0</v>
+      </c>
+      <c r="D21" s="0">
+        <v>1</v>
+      </c>
+      <c r="E21" s="0">
+        <v>0</v>
+      </c>
+      <c r="F21" s="0">
+        <v>0</v>
+      </c>
+      <c r="G21" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="B22" s="0">
+        <v>0</v>
+      </c>
+      <c r="C22" s="0">
+        <v>2</v>
+      </c>
+      <c r="D22" s="0">
+        <v>1</v>
+      </c>
+      <c r="E22" s="0">
+        <v>0</v>
+      </c>
+      <c r="F22" s="0">
+        <v>0</v>
+      </c>
+      <c r="G22" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="B23" s="0">
+        <v>0</v>
+      </c>
+      <c r="C23" s="0">
+        <v>0</v>
+      </c>
+      <c r="D23" s="0">
+        <v>0</v>
+      </c>
+      <c r="E23" s="0">
+        <v>0</v>
+      </c>
+      <c r="F23" s="0">
+        <v>0</v>
+      </c>
+      <c r="G23" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="B24" s="0">
+        <v>0</v>
+      </c>
+      <c r="C24" s="0">
+        <v>0</v>
+      </c>
+      <c r="D24" s="0">
+        <v>0</v>
+      </c>
+      <c r="E24" s="0">
+        <v>0</v>
+      </c>
+      <c r="F24" s="0">
+        <v>0</v>
+      </c>
+      <c r="G24" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="B25" s="0">
+        <v>0</v>
+      </c>
+      <c r="C25" s="0">
+        <v>0</v>
+      </c>
+      <c r="D25" s="0">
+        <v>0</v>
+      </c>
+      <c r="E25" s="0">
+        <v>0</v>
+      </c>
+      <c r="F25" s="0">
+        <v>0</v>
+      </c>
+      <c r="G25" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="B26" s="0">
+        <v>0</v>
+      </c>
+      <c r="C26" s="0">
+        <v>0</v>
+      </c>
+      <c r="D26" s="0">
+        <v>0</v>
+      </c>
+      <c r="E26" s="0">
+        <v>0</v>
+      </c>
+      <c r="F26" s="0">
+        <v>0</v>
+      </c>
+      <c r="G26" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="B27" s="0">
+        <v>0</v>
+      </c>
+      <c r="C27" s="0">
+        <v>0</v>
+      </c>
+      <c r="D27" s="0">
+        <v>0</v>
+      </c>
+      <c r="E27" s="0">
+        <v>0</v>
+      </c>
+      <c r="F27" s="0">
+        <v>0</v>
+      </c>
+      <c r="G27" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="B28" s="0">
+        <v>0</v>
+      </c>
+      <c r="C28" s="0">
+        <v>0</v>
+      </c>
+      <c r="D28" s="0">
+        <v>0</v>
+      </c>
+      <c r="E28" s="0">
+        <v>0</v>
+      </c>
+      <c r="F28" s="0">
+        <v>0</v>
+      </c>
+      <c r="G28" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="B29" s="0">
+        <v>0</v>
+      </c>
+      <c r="C29" s="0">
+        <v>0</v>
+      </c>
+      <c r="D29" s="0">
+        <v>0</v>
+      </c>
+      <c r="E29" s="0">
+        <v>0</v>
+      </c>
+      <c r="F29" s="0">
+        <v>0</v>
+      </c>
+      <c r="G29" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="B30" s="0">
+        <v>0</v>
+      </c>
+      <c r="C30" s="0">
+        <v>0</v>
+      </c>
+      <c r="D30" s="0">
+        <v>0</v>
+      </c>
+      <c r="E30" s="0">
+        <v>0</v>
+      </c>
+      <c r="F30" s="0">
+        <v>0</v>
+      </c>
+      <c r="G30" s="0">
         <v>0</v>
       </c>
     </row>

--- a/WorkLibary/bin/Debug/net7.0/AAA.xlsx
+++ b/WorkLibary/bin/Debug/net7.0/AAA.xlsx
@@ -6,13 +6,14 @@
   </bookViews>
   <sheets>
     <sheet name="Tuesday" sheetId="1" r:id="rId1"/>
+    <sheet name="Tuesday Kitchen" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
   <si>
     <t>Утренние заказы</t>
   </si>
@@ -32,6 +33,18 @@
     <t>Вечерние заказы без наборов</t>
   </si>
   <si>
+    <t>Утро для кухни</t>
+  </si>
+  <si>
+    <t>День для кухни</t>
+  </si>
+  <si>
+    <t>Вечер для кухни</t>
+  </si>
+  <si>
+    <t>Итого для кухни</t>
+  </si>
+  <si>
     <t>Свинина жареная на углях с овощами в лаваше</t>
   </si>
   <si>
@@ -117,6 +130,9 @@
   </si>
   <si>
     <t>Веган #3 (шпинатный суп-пюре, фалафель фасоль, морковный кекс)</t>
+  </si>
+  <si>
+    <t>Вторник</t>
   </si>
 </sst>
 </file>
@@ -124,8 +140,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="2">
     <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <name val="Calibri"/>
     </font>
@@ -150,8 +171,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -162,7 +184,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G30"/>
+  <dimension ref="A1:K30"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -187,10 +209,22 @@
       <c r="G1" s="0" t="s">
         <v>5</v>
       </c>
+      <c r="H1" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="0" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B2" s="0">
         <v>0</v>
@@ -210,10 +244,22 @@
       <c r="G2" s="0">
         <v>1</v>
       </c>
+      <c r="H2" s="0">
+        <v>0</v>
+      </c>
+      <c r="I2" s="0">
+        <v>5</v>
+      </c>
+      <c r="J2" s="0">
+        <v>2</v>
+      </c>
+      <c r="K2" s="0">
+        <v>7</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B3" s="0">
         <v>0</v>
@@ -233,10 +279,22 @@
       <c r="G3" s="0">
         <v>5</v>
       </c>
+      <c r="H3" s="0">
+        <v>0</v>
+      </c>
+      <c r="I3" s="0">
+        <v>5</v>
+      </c>
+      <c r="J3" s="0">
+        <v>7</v>
+      </c>
+      <c r="K3" s="0">
+        <v>12</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B4" s="0">
         <v>0</v>
@@ -255,11 +313,23 @@
       </c>
       <c r="G4" s="0">
         <v>0</v>
+      </c>
+      <c r="H4" s="0">
+        <v>0</v>
+      </c>
+      <c r="I4" s="0">
+        <v>1</v>
+      </c>
+      <c r="J4" s="0">
+        <v>1</v>
+      </c>
+      <c r="K4" s="0">
+        <v>2</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B5" s="0">
         <v>0</v>
@@ -279,10 +349,22 @@
       <c r="G5" s="0">
         <v>1</v>
       </c>
+      <c r="H5" s="0">
+        <v>0</v>
+      </c>
+      <c r="I5" s="0">
+        <v>10</v>
+      </c>
+      <c r="J5" s="0">
+        <v>3</v>
+      </c>
+      <c r="K5" s="0">
+        <v>13</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B6" s="0">
         <v>0</v>
@@ -301,11 +383,23 @@
       </c>
       <c r="G6" s="0">
         <v>0</v>
+      </c>
+      <c r="H6" s="0">
+        <v>0</v>
+      </c>
+      <c r="I6" s="0">
+        <v>1</v>
+      </c>
+      <c r="J6" s="0">
+        <v>0</v>
+      </c>
+      <c r="K6" s="0">
+        <v>1</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B7" s="0">
         <v>0</v>
@@ -323,12 +417,24 @@
         <v>0</v>
       </c>
       <c r="G7" s="0">
+        <v>0</v>
+      </c>
+      <c r="H7" s="0">
+        <v>0</v>
+      </c>
+      <c r="I7" s="0">
+        <v>0</v>
+      </c>
+      <c r="J7" s="0">
+        <v>0</v>
+      </c>
+      <c r="K7" s="0">
         <v>0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B8" s="0">
         <v>0</v>
@@ -346,12 +452,24 @@
         <v>0</v>
       </c>
       <c r="G8" s="0">
+        <v>0</v>
+      </c>
+      <c r="H8" s="0">
+        <v>0</v>
+      </c>
+      <c r="I8" s="0">
+        <v>0</v>
+      </c>
+      <c r="J8" s="0">
+        <v>0</v>
+      </c>
+      <c r="K8" s="0">
         <v>0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B9" s="0">
         <v>0</v>
@@ -370,11 +488,23 @@
       </c>
       <c r="G9" s="0">
         <v>0</v>
+      </c>
+      <c r="H9" s="0">
+        <v>0</v>
+      </c>
+      <c r="I9" s="0">
+        <v>1</v>
+      </c>
+      <c r="J9" s="0">
+        <v>1</v>
+      </c>
+      <c r="K9" s="0">
+        <v>2</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B10" s="0">
         <v>0</v>
@@ -392,12 +522,24 @@
         <v>0</v>
       </c>
       <c r="G10" s="0">
+        <v>0</v>
+      </c>
+      <c r="H10" s="0">
+        <v>0</v>
+      </c>
+      <c r="I10" s="0">
+        <v>0</v>
+      </c>
+      <c r="J10" s="0">
+        <v>0</v>
+      </c>
+      <c r="K10" s="0">
         <v>0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B11" s="0">
         <v>0</v>
@@ -416,11 +558,23 @@
       </c>
       <c r="G11" s="0">
         <v>0</v>
+      </c>
+      <c r="H11" s="0">
+        <v>0</v>
+      </c>
+      <c r="I11" s="0">
+        <v>2</v>
+      </c>
+      <c r="J11" s="0">
+        <v>0</v>
+      </c>
+      <c r="K11" s="0">
+        <v>2</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B12" s="0">
         <v>0</v>
@@ -440,10 +594,22 @@
       <c r="G12" s="0">
         <v>6</v>
       </c>
+      <c r="H12" s="0">
+        <v>0</v>
+      </c>
+      <c r="I12" s="0">
+        <v>7</v>
+      </c>
+      <c r="J12" s="0">
+        <v>7</v>
+      </c>
+      <c r="K12" s="0">
+        <v>14</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="0" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B13" s="0">
         <v>0</v>
@@ -463,10 +629,22 @@
       <c r="G13" s="0">
         <v>1</v>
       </c>
+      <c r="H13" s="0">
+        <v>0</v>
+      </c>
+      <c r="I13" s="0">
+        <v>8</v>
+      </c>
+      <c r="J13" s="0">
+        <v>3</v>
+      </c>
+      <c r="K13" s="0">
+        <v>11</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="0" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B14" s="0">
         <v>0</v>
@@ -486,10 +664,22 @@
       <c r="G14" s="0">
         <v>6</v>
       </c>
+      <c r="H14" s="0">
+        <v>0</v>
+      </c>
+      <c r="I14" s="0">
+        <v>10</v>
+      </c>
+      <c r="J14" s="0">
+        <v>11</v>
+      </c>
+      <c r="K14" s="0">
+        <v>21</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="0" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B15" s="0">
         <v>0</v>
@@ -507,12 +697,24 @@
         <v>0</v>
       </c>
       <c r="G15" s="0">
+        <v>0</v>
+      </c>
+      <c r="H15" s="0">
+        <v>0</v>
+      </c>
+      <c r="I15" s="0">
+        <v>0</v>
+      </c>
+      <c r="J15" s="0">
+        <v>0</v>
+      </c>
+      <c r="K15" s="0">
         <v>0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B16" s="0">
         <v>0</v>
@@ -532,10 +734,22 @@
       <c r="G16" s="0">
         <v>1</v>
       </c>
+      <c r="H16" s="0">
+        <v>0</v>
+      </c>
+      <c r="I16" s="0">
+        <v>9</v>
+      </c>
+      <c r="J16" s="0">
+        <v>3</v>
+      </c>
+      <c r="K16" s="0">
+        <v>12</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="0" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B17" s="0">
         <v>0</v>
@@ -554,11 +768,23 @@
       </c>
       <c r="G17" s="0">
         <v>0</v>
+      </c>
+      <c r="H17" s="0">
+        <v>0</v>
+      </c>
+      <c r="I17" s="0">
+        <v>1</v>
+      </c>
+      <c r="J17" s="0">
+        <v>0</v>
+      </c>
+      <c r="K17" s="0">
+        <v>1</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B18" s="0">
         <v>0</v>
@@ -577,11 +803,23 @@
       </c>
       <c r="G18" s="0">
         <v>0</v>
+      </c>
+      <c r="H18" s="0">
+        <v>0</v>
+      </c>
+      <c r="I18" s="0">
+        <v>2</v>
+      </c>
+      <c r="J18" s="0">
+        <v>0</v>
+      </c>
+      <c r="K18" s="0">
+        <v>2</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B19" s="0">
         <v>0</v>
@@ -599,12 +837,24 @@
         <v>0</v>
       </c>
       <c r="G19" s="0">
+        <v>0</v>
+      </c>
+      <c r="H19" s="0">
+        <v>0</v>
+      </c>
+      <c r="I19" s="0">
+        <v>0</v>
+      </c>
+      <c r="J19" s="0">
+        <v>0</v>
+      </c>
+      <c r="K19" s="0">
         <v>0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B20" s="0">
         <v>0</v>
@@ -627,7 +877,7 @@
     </row>
     <row r="21">
       <c r="A21" s="0" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B21" s="0">
         <v>0</v>
@@ -650,7 +900,7 @@
     </row>
     <row r="22">
       <c r="A22" s="0" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B22" s="0">
         <v>0</v>
@@ -673,7 +923,7 @@
     </row>
     <row r="23">
       <c r="A23" s="0" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B23" s="0">
         <v>0</v>
@@ -696,7 +946,7 @@
     </row>
     <row r="24">
       <c r="A24" s="0" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B24" s="0">
         <v>0</v>
@@ -719,7 +969,7 @@
     </row>
     <row r="25">
       <c r="A25" s="0" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B25" s="0">
         <v>0</v>
@@ -742,7 +992,7 @@
     </row>
     <row r="26">
       <c r="A26" s="0" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B26" s="0">
         <v>0</v>
@@ -765,7 +1015,7 @@
     </row>
     <row r="27">
       <c r="A27" s="0" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B27" s="0">
         <v>0</v>
@@ -788,7 +1038,7 @@
     </row>
     <row r="28">
       <c r="A28" s="0" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B28" s="0">
         <v>0</v>
@@ -811,7 +1061,7 @@
     </row>
     <row r="29">
       <c r="A29" s="0" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B29" s="0">
         <v>0</v>
@@ -834,25 +1084,416 @@
     </row>
     <row r="30">
       <c r="A30" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="B30" s="0">
+        <v>0</v>
+      </c>
+      <c r="C30" s="0">
+        <v>0</v>
+      </c>
+      <c r="D30" s="0">
+        <v>0</v>
+      </c>
+      <c r="E30" s="0">
+        <v>0</v>
+      </c>
+      <c r="F30" s="0">
+        <v>0</v>
+      </c>
+      <c r="G30" s="0">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:E30"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="0">
+        <v>0</v>
+      </c>
+      <c r="C2" s="0">
+        <v>5</v>
+      </c>
+      <c r="D2" s="0">
+        <v>2</v>
+      </c>
+      <c r="E2" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="0">
+        <v>0</v>
+      </c>
+      <c r="C3" s="0">
+        <v>5</v>
+      </c>
+      <c r="D3" s="0">
+        <v>7</v>
+      </c>
+      <c r="E3" s="0">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="0">
+        <v>0</v>
+      </c>
+      <c r="C4" s="0">
+        <v>1</v>
+      </c>
+      <c r="D4" s="0">
+        <v>1</v>
+      </c>
+      <c r="E4" s="0">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="0">
+        <v>0</v>
+      </c>
+      <c r="C5" s="0">
+        <v>10</v>
+      </c>
+      <c r="D5" s="0">
+        <v>3</v>
+      </c>
+      <c r="E5" s="0">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="0">
+        <v>0</v>
+      </c>
+      <c r="C6" s="0">
+        <v>1</v>
+      </c>
+      <c r="D6" s="0">
+        <v>0</v>
+      </c>
+      <c r="E6" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" s="0">
+        <v>0</v>
+      </c>
+      <c r="C7" s="0">
+        <v>0</v>
+      </c>
+      <c r="D7" s="0">
+        <v>0</v>
+      </c>
+      <c r="E7" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" s="0">
+        <v>0</v>
+      </c>
+      <c r="C8" s="0">
+        <v>0</v>
+      </c>
+      <c r="D8" s="0">
+        <v>0</v>
+      </c>
+      <c r="E8" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" s="0">
+        <v>0</v>
+      </c>
+      <c r="C9" s="0">
+        <v>1</v>
+      </c>
+      <c r="D9" s="0">
+        <v>1</v>
+      </c>
+      <c r="E9" s="0">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" s="0">
+        <v>0</v>
+      </c>
+      <c r="C10" s="0">
+        <v>0</v>
+      </c>
+      <c r="D10" s="0">
+        <v>0</v>
+      </c>
+      <c r="E10" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11" s="0">
+        <v>0</v>
+      </c>
+      <c r="C11" s="0">
+        <v>2</v>
+      </c>
+      <c r="D11" s="0">
+        <v>0</v>
+      </c>
+      <c r="E11" s="0">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12" s="0">
+        <v>0</v>
+      </c>
+      <c r="C12" s="0">
+        <v>7</v>
+      </c>
+      <c r="D12" s="0">
+        <v>7</v>
+      </c>
+      <c r="E12" s="0">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" s="0">
+        <v>0</v>
+      </c>
+      <c r="C13" s="0">
+        <v>8</v>
+      </c>
+      <c r="D13" s="0">
+        <v>3</v>
+      </c>
+      <c r="E13" s="0">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" s="0">
+        <v>0</v>
+      </c>
+      <c r="C14" s="0">
+        <v>10</v>
+      </c>
+      <c r="D14" s="0">
+        <v>11</v>
+      </c>
+      <c r="E14" s="0">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" s="0">
+        <v>0</v>
+      </c>
+      <c r="C15" s="0">
+        <v>0</v>
+      </c>
+      <c r="D15" s="0">
+        <v>0</v>
+      </c>
+      <c r="E15" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16" s="0">
+        <v>0</v>
+      </c>
+      <c r="C16" s="0">
+        <v>9</v>
+      </c>
+      <c r="D16" s="0">
+        <v>3</v>
+      </c>
+      <c r="E16" s="0">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="B17" s="0">
+        <v>0</v>
+      </c>
+      <c r="C17" s="0">
+        <v>1</v>
+      </c>
+      <c r="D17" s="0">
+        <v>0</v>
+      </c>
+      <c r="E17" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="B18" s="0">
+        <v>0</v>
+      </c>
+      <c r="C18" s="0">
+        <v>2</v>
+      </c>
+      <c r="D18" s="0">
+        <v>0</v>
+      </c>
+      <c r="E18" s="0">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="B19" s="0">
+        <v>0</v>
+      </c>
+      <c r="C19" s="0">
+        <v>0</v>
+      </c>
+      <c r="D19" s="0">
+        <v>0</v>
+      </c>
+      <c r="E19" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="0" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="0" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="0" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="0" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="0" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="0" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="0" t="s">
         <v>34</v>
       </c>
-      <c r="B30" s="0">
-        <v>0</v>
-      </c>
-      <c r="C30" s="0">
-        <v>0</v>
-      </c>
-      <c r="D30" s="0">
-        <v>0</v>
-      </c>
-      <c r="E30" s="0">
-        <v>0</v>
-      </c>
-      <c r="F30" s="0">
-        <v>0</v>
-      </c>
-      <c r="G30" s="0">
-        <v>0</v>
+    </row>
+    <row r="27">
+      <c r="A27" s="0" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="0" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="0" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="0" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>

--- a/WorkLibary/bin/Debug/net7.0/AAA.xlsx
+++ b/WorkLibary/bin/Debug/net7.0/AAA.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
   <si>
     <t>ФИО</t>
   </si>
@@ -271,16 +271,16 @@
     <t>Вечерние заказы без наборов</t>
   </si>
   <si>
-    <t>Утро для кухни</t>
+    <t>Утро с яндексом</t>
   </si>
   <si>
-    <t>День для кухни</t>
+    <t>День с яндексом</t>
   </si>
   <si>
-    <t>Вечер для кухни</t>
+    <t>Вечер с яндексом</t>
   </si>
   <si>
-    <t>Итого для кухни</t>
+    <t>Итого с яндексом</t>
   </si>
   <si>
     <t>Фалафель из нута с овощами в лаваше</t>
@@ -329,6 +329,18 @@
   </si>
   <si>
     <t>Вторник</t>
+  </si>
+  <si>
+    <t>Утро для кухни</t>
+  </si>
+  <si>
+    <t>День для кухни</t>
+  </si>
+  <si>
+    <t>Вечер для кухни</t>
+  </si>
+  <si>
+    <t>Итого для кухни</t>
   </si>
   <si>
     <t>Среда</t>
@@ -4371,19 +4383,19 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>103</v>
+      </c>
+      <c r="D1" s="0" t="s">
         <v>104</v>
       </c>
-      <c r="B1" s="0" t="s">
-        <v>82</v>
-      </c>
-      <c r="C1" s="0" t="s">
-        <v>83</v>
-      </c>
-      <c r="D1" s="0" t="s">
-        <v>84</v>
-      </c>
       <c r="E1" s="0" t="s">
-        <v>85</v>
+        <v>105</v>
       </c>
     </row>
     <row r="2">
@@ -4394,13 +4406,13 @@
         <v>0</v>
       </c>
       <c r="C2" s="0">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D2" s="0">
         <v>1</v>
       </c>
       <c r="E2" s="0">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3">
@@ -4431,10 +4443,10 @@
         <v>3</v>
       </c>
       <c r="D4" s="0">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E4" s="0">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5">
@@ -4445,13 +4457,13 @@
         <v>0</v>
       </c>
       <c r="C5" s="0">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D5" s="0">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E5" s="0">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6">
@@ -4530,13 +4542,13 @@
         <v>1</v>
       </c>
       <c r="C10" s="0">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D10" s="0">
         <v>1</v>
       </c>
       <c r="E10" s="0">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11">
@@ -4547,13 +4559,13 @@
         <v>0</v>
       </c>
       <c r="C11" s="0">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D11" s="0">
         <v>0</v>
       </c>
       <c r="E11" s="0">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -4564,13 +4576,13 @@
         <v>0</v>
       </c>
       <c r="C12" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D12" s="0">
         <v>0</v>
       </c>
       <c r="E12" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -4598,13 +4610,13 @@
         <v>1</v>
       </c>
       <c r="C14" s="0">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D14" s="0">
         <v>5</v>
       </c>
       <c r="E14" s="0">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="15">
@@ -4615,13 +4627,13 @@
         <v>0</v>
       </c>
       <c r="C15" s="0">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D15" s="0">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E15" s="0">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="16">
@@ -4632,13 +4644,13 @@
         <v>0</v>
       </c>
       <c r="C16" s="0">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D16" s="0">
         <v>5</v>
       </c>
       <c r="E16" s="0">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="17">
@@ -4666,13 +4678,13 @@
         <v>0</v>
       </c>
       <c r="C18" s="0">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D18" s="0">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E18" s="0">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="19">
@@ -4683,13 +4695,13 @@
         <v>1</v>
       </c>
       <c r="C19" s="0">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D19" s="0">
         <v>0</v>
       </c>
       <c r="E19" s="0">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20">
@@ -4717,13 +4729,13 @@
         <v>0</v>
       </c>
       <c r="C21" s="0">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D21" s="0">
         <v>0</v>
       </c>
       <c r="E21" s="0">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -5853,16 +5865,16 @@
         <v>101</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>82</v>
+        <v>102</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>83</v>
+        <v>103</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>84</v>
+        <v>104</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>85</v>
+        <v>105</v>
       </c>
     </row>
     <row r="2">
@@ -5890,13 +5902,13 @@
         <v>0</v>
       </c>
       <c r="C3" s="0">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D3" s="0">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E3" s="0">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4">
@@ -5924,13 +5936,13 @@
         <v>1</v>
       </c>
       <c r="C5" s="0">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D5" s="0">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E5" s="0">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6">
@@ -6043,13 +6055,13 @@
         <v>0</v>
       </c>
       <c r="C12" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D12" s="0">
         <v>0</v>
       </c>
       <c r="E12" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -6077,13 +6089,13 @@
         <v>1</v>
       </c>
       <c r="C14" s="0">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D14" s="0">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E14" s="0">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="15">
@@ -6094,13 +6106,13 @@
         <v>1</v>
       </c>
       <c r="C15" s="0">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D15" s="0">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E15" s="0">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="16">
@@ -6111,13 +6123,13 @@
         <v>1</v>
       </c>
       <c r="C16" s="0">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D16" s="0">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E16" s="0">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="17">
@@ -6145,13 +6157,13 @@
         <v>1</v>
       </c>
       <c r="C18" s="0">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D18" s="0">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E18" s="0">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="19">
@@ -6162,13 +6174,13 @@
         <v>0</v>
       </c>
       <c r="C19" s="0">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D19" s="0">
         <v>0</v>
       </c>
       <c r="E19" s="0">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20">
@@ -8791,19 +8803,19 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B1" s="0" t="s">
         <v>102</v>
       </c>
-      <c r="B1" s="0" t="s">
-        <v>82</v>
-      </c>
       <c r="C1" s="0" t="s">
-        <v>83</v>
+        <v>103</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>84</v>
+        <v>104</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>85</v>
+        <v>105</v>
       </c>
     </row>
     <row r="2">
@@ -8814,13 +8826,13 @@
         <v>1</v>
       </c>
       <c r="C2" s="0">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D2" s="0">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E2" s="0">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -8831,13 +8843,13 @@
         <v>1</v>
       </c>
       <c r="C3" s="0">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D3" s="0">
         <v>2</v>
       </c>
       <c r="E3" s="0">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4">
@@ -8848,13 +8860,13 @@
         <v>1</v>
       </c>
       <c r="C4" s="0">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D4" s="0">
+        <v>6</v>
+      </c>
+      <c r="E4" s="0">
         <v>8</v>
-      </c>
-      <c r="E4" s="0">
-        <v>11</v>
       </c>
     </row>
     <row r="5">
@@ -8865,13 +8877,13 @@
         <v>0</v>
       </c>
       <c r="C5" s="0">
+        <v>4</v>
+      </c>
+      <c r="D5" s="0">
+        <v>2</v>
+      </c>
+      <c r="E5" s="0">
         <v>6</v>
-      </c>
-      <c r="D5" s="0">
-        <v>2</v>
-      </c>
-      <c r="E5" s="0">
-        <v>8</v>
       </c>
     </row>
     <row r="6">
@@ -8936,10 +8948,10 @@
         <v>1</v>
       </c>
       <c r="D9" s="0">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E9" s="0">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10">
@@ -8967,13 +8979,13 @@
         <v>0</v>
       </c>
       <c r="C11" s="0">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D11" s="0">
         <v>0</v>
       </c>
       <c r="E11" s="0">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -8987,10 +8999,10 @@
         <v>1</v>
       </c>
       <c r="D12" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E12" s="0">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13">
@@ -9018,13 +9030,13 @@
         <v>2</v>
       </c>
       <c r="C14" s="0">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D14" s="0">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E14" s="0">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="15">
@@ -9035,13 +9047,13 @@
         <v>0</v>
       </c>
       <c r="C15" s="0">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D15" s="0">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E15" s="0">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="16">
@@ -9052,13 +9064,13 @@
         <v>1</v>
       </c>
       <c r="C16" s="0">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D16" s="0">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E16" s="0">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="17">
@@ -9086,13 +9098,13 @@
         <v>1</v>
       </c>
       <c r="C18" s="0">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D18" s="0">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E18" s="0">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="19">
@@ -9103,13 +9115,13 @@
         <v>0</v>
       </c>
       <c r="C19" s="0">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D19" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E19" s="0">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20">
@@ -9123,10 +9135,10 @@
         <v>1</v>
       </c>
       <c r="D20" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E20" s="0">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21">
@@ -9140,10 +9152,10 @@
         <v>0</v>
       </c>
       <c r="D21" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E21" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -11747,19 +11759,19 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="C1" s="0" t="s">
         <v>103</v>
       </c>
-      <c r="B1" s="0" t="s">
-        <v>82</v>
-      </c>
-      <c r="C1" s="0" t="s">
-        <v>83</v>
-      </c>
       <c r="D1" s="0" t="s">
-        <v>84</v>
+        <v>104</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>85</v>
+        <v>105</v>
       </c>
     </row>
     <row r="2">
@@ -11787,13 +11799,13 @@
         <v>1</v>
       </c>
       <c r="C3" s="0">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D3" s="0">
         <v>1</v>
       </c>
       <c r="E3" s="0">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4">
@@ -11804,13 +11816,13 @@
         <v>0</v>
       </c>
       <c r="C4" s="0">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D4" s="0">
         <v>6</v>
       </c>
       <c r="E4" s="0">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5">
@@ -11824,10 +11836,10 @@
         <v>6</v>
       </c>
       <c r="D5" s="0">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E5" s="0">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6">
@@ -11923,13 +11935,13 @@
         <v>0</v>
       </c>
       <c r="C11" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D11" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E11" s="0">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -11943,10 +11955,10 @@
         <v>0</v>
       </c>
       <c r="D12" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E12" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -11974,13 +11986,13 @@
         <v>1</v>
       </c>
       <c r="C14" s="0">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D14" s="0">
         <v>3</v>
       </c>
       <c r="E14" s="0">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="15">
@@ -11994,10 +12006,10 @@
         <v>4</v>
       </c>
       <c r="D15" s="0">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E15" s="0">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="16">
@@ -12008,13 +12020,13 @@
         <v>0</v>
       </c>
       <c r="C16" s="0">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D16" s="0">
         <v>2</v>
       </c>
       <c r="E16" s="0">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="17">
@@ -12045,10 +12057,10 @@
         <v>7</v>
       </c>
       <c r="D18" s="0">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E18" s="0">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="19">
@@ -12059,13 +12071,13 @@
         <v>0</v>
       </c>
       <c r="C19" s="0">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D19" s="0">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E19" s="0">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20">
@@ -12093,13 +12105,13 @@
         <v>0</v>
       </c>
       <c r="C21" s="0">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D21" s="0">
         <v>3</v>
       </c>
       <c r="E21" s="0">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="22">

--- a/WorkLibary/bin/Debug/net7.0/AAA.xlsx
+++ b/WorkLibary/bin/Debug/net7.0/AAA.xlsx
@@ -19,14 +19,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="59">
   <si>
     <t>Вторник</t>
   </si>
   <si>
-    <t>Утренние</t>
-  </si>
-  <si>
     <t>Дневные</t>
   </si>
   <si>
@@ -96,6 +93,12 @@
     <t>Слойка "Яблочный штрудель"</t>
   </si>
   <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
     <t>Кекс морковный</t>
   </si>
   <si>
@@ -159,28 +162,40 @@
     <t>Вечер</t>
   </si>
   <si>
+    <t>Итого</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>Среда</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>Четверг</t>
+  </si>
+  <si>
+    <t>Пятница</t>
+  </si>
+  <si>
     <t>11</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>7</t>
-  </si>
-  <si>
-    <t>8</t>
-  </si>
-  <si>
-    <t>Среда</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>Четверг</t>
-  </si>
-  <si>
-    <t>Пятница</t>
   </si>
 </sst>
 </file>
@@ -226,7 +241,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D34"/>
+  <dimension ref="A1:C34"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -242,470 +257,368 @@
       <c r="C1" s="0" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="0" t="s">
-        <v>3</v>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C2" s="0" t="s">
         <v>5</v>
-      </c>
-      <c r="D2" s="0" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="0" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="0" t="s">
-        <v>5</v>
-      </c>
       <c r="C3" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" s="0" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C4" s="0" t="s">
         <v>10</v>
-      </c>
-      <c r="D4" s="0" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B5" s="0" t="s">
         <v>5</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="D5" s="0" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="D6" s="0" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="D7" s="0" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="D8" s="0" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="D9" s="0" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="D10" s="0" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="D11" s="0" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="D12" s="0" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="D13" s="0" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="B14" s="0" t="s">
         <v>21</v>
       </c>
-      <c r="B14" s="0" t="s">
-        <v>5</v>
-      </c>
       <c r="C14" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="D14" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B15" s="0" t="s">
         <v>5</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="D15" s="0" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" s="0" t="s">
         <v>24</v>
       </c>
-      <c r="B16" s="0" t="s">
-        <v>5</v>
-      </c>
       <c r="C16" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="D16" s="0" t="s">
-        <v>5</v>
+        <v>25</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="D17" s="0" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="D18" s="0" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="D19" s="0" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="D20" s="0" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="D21" s="0" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C22" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="D22" s="0" t="s">
-        <v>5</v>
+        <v>25</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C23" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="D23" s="0" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C24" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="D24" s="0" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C25" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="D25" s="0" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C26" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="D26" s="0" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C27" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="D27" s="0" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C28" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="D28" s="0" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C29" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="D29" s="0" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C30" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="D30" s="0" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C31" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="D31" s="0" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B32" s="0" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C32" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="D32" s="0" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B33" s="0" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C33" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="D33" s="0" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B34" s="0" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C34" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="D34" s="0" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -715,7 +628,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D21"/>
+  <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -726,293 +639,356 @@
         <v>0</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>6</v>
+        <v>5</v>
+      </c>
+      <c r="E2" s="0" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>47</v>
+        <v>25</v>
+      </c>
+      <c r="E3" s="0" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D4" s="0" t="s">
         <v>10</v>
+      </c>
+      <c r="E4" s="0" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>22</v>
+        <v>5</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>47</v>
+        <v>5</v>
+      </c>
+      <c r="E5" s="0" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>5</v>
+        <v>4</v>
+      </c>
+      <c r="E6" s="0" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>5</v>
+        <v>4</v>
+      </c>
+      <c r="E7" s="0" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>5</v>
+        <v>4</v>
+      </c>
+      <c r="E8" s="0" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>5</v>
+        <v>4</v>
+      </c>
+      <c r="E9" s="0" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>11</v>
+        <v>10</v>
+      </c>
+      <c r="E10" s="0" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>10</v>
+        <v>4</v>
+      </c>
+      <c r="E11" s="0" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>5</v>
+        <v>4</v>
+      </c>
+      <c r="E12" s="0" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D13" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="E13" s="0" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>48</v>
+        <v>24</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>49</v>
+        <v>24</v>
+      </c>
+      <c r="E14" s="0" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>22</v>
+        <v>5</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>47</v>
+        <v>9</v>
+      </c>
+      <c r="E15" s="0" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>5</v>
+        <v>51</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>5</v>
+        <v>52</v>
+      </c>
+      <c r="E16" s="0" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D17" s="0" t="s">
-        <v>5</v>
+        <v>10</v>
+      </c>
+      <c r="E17" s="0" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="D18" s="0" t="s">
-        <v>5</v>
+        <v>9</v>
+      </c>
+      <c r="E18" s="0" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D19" s="0" t="s">
-        <v>5</v>
+        <v>4</v>
+      </c>
+      <c r="E19" s="0" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D20" s="0" t="s">
-        <v>5</v>
+        <v>4</v>
+      </c>
+      <c r="E20" s="0" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D21" s="0" t="s">
-        <v>5</v>
+        <v>4</v>
+      </c>
+      <c r="E21" s="0" t="s">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -1022,7 +998,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D34"/>
+  <dimension ref="A1:C34"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1030,7 +1006,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B1" s="0" t="s">
         <v>1</v>
@@ -1038,470 +1014,368 @@
       <c r="C1" s="0" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="0" t="s">
-        <v>3</v>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" s="0" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>51</v>
-      </c>
-      <c r="D3" s="0" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>47</v>
-      </c>
-      <c r="D5" s="0" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="D6" s="0" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="D7" s="0" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="D8" s="0" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="D9" s="0" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="D10" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="D11" s="0" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="D12" s="0" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="D13" s="0" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="D14" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="D15" s="0" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="D16" s="0" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="D17" s="0" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="D18" s="0" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="D19" s="0" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="D20" s="0" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="D21" s="0" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C22" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="D22" s="0" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C23" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="D23" s="0" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C24" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="D24" s="0" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C25" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="D25" s="0" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C26" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="D26" s="0" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C27" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="D27" s="0" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C28" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="D28" s="0" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C29" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="D29" s="0" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C30" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="D30" s="0" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C31" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="D31" s="0" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B32" s="0" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C32" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="D32" s="0" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B33" s="0" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C33" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="D33" s="0" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B34" s="0" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C34" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="D34" s="0" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -1511,7 +1385,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D21"/>
+  <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1519,296 +1393,359 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D2" s="0" t="s">
         <v>10</v>
+      </c>
+      <c r="E2" s="0" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>51</v>
+        <v>25</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>5</v>
+        <v>4</v>
+      </c>
+      <c r="E3" s="0" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C4" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="E4" s="0" t="s">
         <v>51</v>
-      </c>
-      <c r="D4" s="0" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>48</v>
+        <v>21</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>51</v>
+        <v>5</v>
+      </c>
+      <c r="E5" s="0" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>5</v>
+        <v>4</v>
+      </c>
+      <c r="E6" s="0" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>11</v>
+        <v>10</v>
+      </c>
+      <c r="E7" s="0" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>5</v>
+        <v>4</v>
+      </c>
+      <c r="E8" s="0" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>11</v>
+        <v>10</v>
+      </c>
+      <c r="E9" s="0" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
+      </c>
+      <c r="E10" s="0" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>5</v>
+        <v>4</v>
+      </c>
+      <c r="E11" s="0" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>11</v>
+        <v>4</v>
+      </c>
+      <c r="E12" s="0" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>5</v>
+        <v>4</v>
+      </c>
+      <c r="E13" s="0" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C14" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="E14" s="0" t="s">
         <v>51</v>
-      </c>
-      <c r="D14" s="0" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>46</v>
+        <v>51</v>
+      </c>
+      <c r="E15" s="0" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>5</v>
+        <v>10</v>
+      </c>
+      <c r="E16" s="0" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D17" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="E17" s="0" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="D18" s="0" t="s">
-        <v>5</v>
+        <v>7</v>
+      </c>
+      <c r="E18" s="0" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D19" s="0" t="s">
-        <v>5</v>
+        <v>10</v>
+      </c>
+      <c r="E19" s="0" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D20" s="0" t="s">
-        <v>5</v>
+        <v>4</v>
+      </c>
+      <c r="E20" s="0" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D21" s="0" t="s">
-        <v>5</v>
+        <v>4</v>
+      </c>
+      <c r="E21" s="0" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -1818,7 +1755,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D34"/>
+  <dimension ref="A1:C34"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1826,7 +1763,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B1" s="0" t="s">
         <v>1</v>
@@ -1834,470 +1771,368 @@
       <c r="C1" s="0" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="0" t="s">
-        <v>3</v>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="C2" s="0" t="s">
         <v>10</v>
-      </c>
-      <c r="D2" s="0" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B3" s="0" t="s">
         <v>5</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" s="0" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" s="0" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" s="0" t="s">
-        <v>51</v>
+        <v>25</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="D6" s="0" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="D7" s="0" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="D8" s="0" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B9" s="0" t="s">
         <v>5</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="D9" s="0" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="D10" s="0" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="D11" s="0" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="D12" s="0" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="D13" s="0" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="B14" s="0" t="s">
         <v>21</v>
       </c>
-      <c r="B14" s="0" t="s">
-        <v>11</v>
-      </c>
       <c r="C14" s="0" t="s">
-        <v>51</v>
-      </c>
-      <c r="D14" s="0" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B15" s="0" t="s">
         <v>5</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="D15" s="0" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="D16" s="0" t="s">
-        <v>5</v>
+        <v>21</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="D17" s="0" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="D18" s="0" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="D19" s="0" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="D20" s="0" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="D21" s="0" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C22" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="D22" s="0" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C23" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="D23" s="0" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C24" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="D24" s="0" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C25" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="D25" s="0" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C26" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="D26" s="0" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C27" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="D27" s="0" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C28" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="D28" s="0" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C29" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="D29" s="0" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C30" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="D30" s="0" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C31" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="D31" s="0" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B32" s="0" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C32" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="D32" s="0" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B33" s="0" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C33" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="D33" s="0" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B34" s="0" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C34" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="D34" s="0" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -2307,7 +2142,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D21"/>
+  <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2315,296 +2150,359 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
+      </c>
+      <c r="E2" s="0" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D3" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="0" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>51</v>
+        <v>5</v>
+      </c>
+      <c r="E4" s="0" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>22</v>
+        <v>5</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>48</v>
+        <v>21</v>
+      </c>
+      <c r="E5" s="0" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>11</v>
+        <v>10</v>
+      </c>
+      <c r="E6" s="0" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>5</v>
+        <v>4</v>
+      </c>
+      <c r="E7" s="0" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>5</v>
+        <v>4</v>
+      </c>
+      <c r="E8" s="0" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>11</v>
+        <v>10</v>
+      </c>
+      <c r="E9" s="0" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>11</v>
+        <v>10</v>
+      </c>
+      <c r="E10" s="0" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>10</v>
+        <v>4</v>
+      </c>
+      <c r="E11" s="0" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>10</v>
+        <v>4</v>
+      </c>
+      <c r="E12" s="0" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>5</v>
+        <v>4</v>
+      </c>
+      <c r="E13" s="0" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>51</v>
+        <v>25</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>51</v>
+        <v>25</v>
+      </c>
+      <c r="E14" s="0" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>47</v>
+        <v>25</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>48</v>
+        <v>25</v>
+      </c>
+      <c r="E15" s="0" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="C16" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" s="0" t="s">
         <v>24</v>
       </c>
-      <c r="B16" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="C16" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="D16" s="0" t="s">
-        <v>5</v>
+      <c r="E16" s="0" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D17" s="0" t="s">
-        <v>5</v>
+        <v>4</v>
+      </c>
+      <c r="E17" s="0" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="D18" s="0" t="s">
-        <v>5</v>
+        <v>25</v>
+      </c>
+      <c r="E18" s="0" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D19" s="0" t="s">
-        <v>5</v>
+        <v>4</v>
+      </c>
+      <c r="E19" s="0" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D20" s="0" t="s">
-        <v>5</v>
+        <v>10</v>
+      </c>
+      <c r="E20" s="0" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D21" s="0" t="s">
-        <v>5</v>
+        <v>10</v>
+      </c>
+      <c r="E21" s="0" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -2614,7 +2512,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D34"/>
+  <dimension ref="A1:C34"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2622,7 +2520,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="B1" s="0" t="s">
         <v>1</v>
@@ -2630,470 +2528,368 @@
       <c r="C1" s="0" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="0" t="s">
-        <v>3</v>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" s="0" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" s="0" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="D4" s="0" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="D5" s="0" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="D6" s="0" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="D7" s="0" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="D8" s="0" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="D9" s="0" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="D10" s="0" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="D11" s="0" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="D12" s="0" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="D13" s="0" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>5</v>
+        <v>51</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="D14" s="0" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>51</v>
-      </c>
-      <c r="D15" s="0" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="D16" s="0" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="D17" s="0" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>5</v>
+        <v>51</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="D18" s="0" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="D19" s="0" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="D20" s="0" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="D21" s="0" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C22" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="D22" s="0" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C23" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="D23" s="0" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C24" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="D24" s="0" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C25" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="D25" s="0" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C26" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="D26" s="0" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C27" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="D27" s="0" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C28" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="D28" s="0" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C29" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="D29" s="0" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C30" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="D30" s="0" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C31" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="D31" s="0" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B32" s="0" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C32" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="D32" s="0" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B33" s="0" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C33" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="D33" s="0" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B34" s="0" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C34" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="D34" s="0" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -3103,7 +2899,7 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D21"/>
+  <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3111,295 +2907,358 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>6</v>
+        <v>5</v>
+      </c>
+      <c r="E2" s="0" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>11</v>
+        <v>10</v>
+      </c>
+      <c r="E3" s="0" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>47</v>
+        <v>24</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>47</v>
+        <v>5</v>
+      </c>
+      <c r="E4" s="0" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>47</v>
+        <v>21</v>
       </c>
       <c r="D5" s="0" t="s">
         <v>10</v>
+      </c>
+      <c r="E5" s="0" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>5</v>
+        <v>4</v>
+      </c>
+      <c r="E6" s="0" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>5</v>
+        <v>4</v>
+      </c>
+      <c r="E7" s="0" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>5</v>
+        <v>4</v>
+      </c>
+      <c r="E8" s="0" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
+      </c>
+      <c r="E9" s="0" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>11</v>
+        <v>10</v>
+      </c>
+      <c r="E10" s="0" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>11</v>
+        <v>4</v>
+      </c>
+      <c r="E11" s="0" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>11</v>
+        <v>4</v>
+      </c>
+      <c r="E12" s="0" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>5</v>
+        <v>4</v>
+      </c>
+      <c r="E13" s="0" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>49</v>
+        <v>52</v>
+      </c>
+      <c r="E14" s="0" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>47</v>
+        <v>21</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>22</v>
+        <v>10</v>
+      </c>
+      <c r="E15" s="0" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>5</v>
+        <v>9</v>
+      </c>
+      <c r="E16" s="0" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D17" s="0" t="s">
-        <v>5</v>
+        <v>10</v>
+      </c>
+      <c r="E17" s="0" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>5</v>
+        <v>52</v>
       </c>
       <c r="D18" s="0" t="s">
         <v>5</v>
+      </c>
+      <c r="E18" s="0" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D19" s="0" t="s">
-        <v>5</v>
+        <v>4</v>
+      </c>
+      <c r="E19" s="0" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D20" s="0" t="s">
         <v>5</v>
+      </c>
+      <c r="E20" s="0" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D21" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="E21" s="0" t="s">
         <v>5</v>
       </c>
     </row>

--- a/WorkLibary/bin/Debug/net7.0/AAA.xlsx
+++ b/WorkLibary/bin/Debug/net7.0/AAA.xlsx
@@ -5,21 +5,253 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Вторник Заказ" sheetId="1" r:id="rId1"/>
-    <sheet name="Вторник Заготовки" sheetId="2" r:id="rId2"/>
-    <sheet name="Среда Заказ" sheetId="3" r:id="rId3"/>
-    <sheet name="Среда Заготовки" sheetId="4" r:id="rId4"/>
-    <sheet name="Четверг Заказ" sheetId="5" r:id="rId5"/>
-    <sheet name="Четверг Заготовки" sheetId="6" r:id="rId6"/>
-    <sheet name="Пятница Заказ" sheetId="7" r:id="rId7"/>
-    <sheet name="Пятница Заготовки" sheetId="8" r:id="rId8"/>
+    <sheet name="Вторник Заказы" sheetId="1" r:id="rId1"/>
+    <sheet name="Вторник Заказ" sheetId="2" r:id="rId2"/>
+    <sheet name="Вторник Заготовки" sheetId="3" r:id="rId3"/>
+    <sheet name="Среда Заказы" sheetId="4" r:id="rId4"/>
+    <sheet name="Среда Заказ" sheetId="5" r:id="rId5"/>
+    <sheet name="Среда Заготовки" sheetId="6" r:id="rId6"/>
+    <sheet name="Четверг Заказы" sheetId="7" r:id="rId7"/>
+    <sheet name="Четверг Заказ" sheetId="8" r:id="rId8"/>
+    <sheet name="Четверг Заготовки" sheetId="9" r:id="rId9"/>
+    <sheet name="Пятница Заказы" sheetId="10" r:id="rId10"/>
+    <sheet name="Пятница Заказ" sheetId="11" r:id="rId11"/>
+    <sheet name="Пятница Заготовки" sheetId="12" r:id="rId12"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="118">
+  <si>
+    <t>ФИО</t>
+  </si>
+  <si>
+    <t>Время доставки</t>
+  </si>
+  <si>
+    <t>Закажите набор</t>
+  </si>
+  <si>
+    <t>Закажите горячее</t>
+  </si>
+  <si>
+    <t>Закажите суп</t>
+  </si>
+  <si>
+    <t>Закажите десерт</t>
+  </si>
+  <si>
+    <t>Будет ли кофе</t>
+  </si>
+  <si>
+    <t>Локация</t>
+  </si>
+  <si>
+    <t>Chmir</t>
+  </si>
+  <si>
+    <t>Вечерняя (15:30)</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Свинина жареная на углях с овощами в лаваше</t>
+  </si>
+  <si>
+    <t>Слойка "Яблочный штрудель"</t>
+  </si>
+  <si>
+    <t>Нет</t>
+  </si>
+  <si>
+    <t>Трамвайная</t>
+  </si>
+  <si>
+    <t>Абазов Беслан Русланович</t>
+  </si>
+  <si>
+    <t>Дневная (12:30)</t>
+  </si>
+  <si>
+    <t>Бизнес-леди #1 (тыквенный суп-пюре, креветка, круассан)</t>
+  </si>
+  <si>
+    <t>Аронсон</t>
+  </si>
+  <si>
+    <t>Говядина су-вид с овощами в лаваше</t>
+  </si>
+  <si>
+    <t>Суп-пюре тыквенный</t>
+  </si>
+  <si>
+    <t>Круассан с шоколадом</t>
+  </si>
+  <si>
+    <t>Балабанова С.В.</t>
+  </si>
+  <si>
+    <t>Берсенева</t>
+  </si>
+  <si>
+    <t>ТОП-менеджер #1 (грибной суп-пюре, говядина су-вид, штрудель)</t>
+  </si>
+  <si>
+    <t>Большаков Владимир</t>
+  </si>
+  <si>
+    <t>Курица жареная на углях с овощами в лаваше</t>
+  </si>
+  <si>
+    <t>Суп-пюре грибной</t>
+  </si>
+  <si>
+    <t>Кекс морковный</t>
+  </si>
+  <si>
+    <t>Борисова</t>
+  </si>
+  <si>
+    <t>Да</t>
+  </si>
+  <si>
+    <t>Гагарина</t>
+  </si>
+  <si>
+    <t>Боярских Надежда Николаевна</t>
+  </si>
+  <si>
+    <t>СУПЕРГЕРОЙ / ПРИНЦЕССА #1 (фрикадельки, картофельный дольки с сырным соусом, пирожок с творогом)</t>
+  </si>
+  <si>
+    <t>Вальдбауэр Даниил Андреевич</t>
+  </si>
+  <si>
+    <t>Бизнес-леди #2 (тыквенный суп-пюре, курица, круассан)</t>
+  </si>
+  <si>
+    <t>Водопьянова</t>
+  </si>
+  <si>
+    <t>Герасимов Ю.Н.</t>
+  </si>
+  <si>
+    <t>Глазырина</t>
+  </si>
+  <si>
+    <t>Глумнушина Полина</t>
+  </si>
+  <si>
+    <t>Головина</t>
+  </si>
+  <si>
+    <t>Горинская</t>
+  </si>
+  <si>
+    <t>Гуськов</t>
+  </si>
+  <si>
+    <t>Зеленин Артём Олегович</t>
+  </si>
+  <si>
+    <t>Изотова Анна</t>
+  </si>
+  <si>
+    <t>Пирожок с творогом и вишней</t>
+  </si>
+  <si>
+    <t>Илюшина</t>
+  </si>
+  <si>
+    <t>Жареные креветки с овощами в лаваше</t>
+  </si>
+  <si>
+    <t>Малыгина Варвара Сергеевна</t>
+  </si>
+  <si>
+    <t>Утренний (9:00)</t>
+  </si>
+  <si>
+    <t>Суп-пюре шпинатный</t>
+  </si>
+  <si>
+    <t>Восстания</t>
+  </si>
+  <si>
+    <t>Мецгер А.А.</t>
+  </si>
+  <si>
+    <t>мосина м а</t>
+  </si>
+  <si>
+    <t>Муллаяров Рафит Рифгатович</t>
+  </si>
+  <si>
+    <t>Неустроева Мария</t>
+  </si>
+  <si>
+    <t>Остроумов Алексей</t>
+  </si>
+  <si>
+    <t>Преображенская Екатерина Ивановна</t>
+  </si>
+  <si>
+    <t>Раджабова</t>
+  </si>
+  <si>
+    <t>Салтыков С</t>
+  </si>
+  <si>
+    <t>Синявская Марина Васильевна</t>
+  </si>
+  <si>
+    <t>Соколова Владимира Валерьевна</t>
+  </si>
+  <si>
+    <t>Суфиева Лилия</t>
+  </si>
+  <si>
+    <t>Тен Николай</t>
+  </si>
+  <si>
+    <t>Трошкова Наталья Сергеевна</t>
+  </si>
+  <si>
+    <t>Тынкачева Ольга</t>
+  </si>
+  <si>
+    <t>Тыртышняя Мария Сергеевна</t>
+  </si>
+  <si>
+    <t>Тюков Валерий Викторович</t>
+  </si>
+  <si>
+    <t>Файзрахманова Л.В.</t>
+  </si>
+  <si>
+    <t>Фалеев СП</t>
+  </si>
+  <si>
+    <t>Люля-кебаб говядина свинина с овощами в лаваше</t>
+  </si>
+  <si>
+    <t>Филиппов Пантелеимон Владимирович</t>
+  </si>
+  <si>
+    <t>Люля-кебаб говядина курица с овощами в лаваше</t>
+  </si>
+  <si>
+    <t>Чулиев</t>
+  </si>
+  <si>
+    <t>Шустова Анастасия Сергеевна</t>
+  </si>
+  <si>
+    <t>Пирожок с творогом</t>
+  </si>
   <si>
     <t>Вторник</t>
   </si>
@@ -30,33 +262,21 @@
     <t>Вечерние</t>
   </si>
   <si>
-    <t>Свинина жареная на углях с овощами в лаваше</t>
-  </si>
-  <si>
     <t>0</t>
   </si>
   <si>
     <t>3</t>
   </si>
   <si>
-    <t>Говядина су-вид с овощами в лаваше</t>
-  </si>
-  <si>
     <t>9</t>
   </si>
   <si>
-    <t>Курица жареная на углях с овощами в лаваше</t>
-  </si>
-  <si>
     <t>2</t>
   </si>
   <si>
     <t>1</t>
   </si>
   <si>
-    <t>Жареные креветки с овощами в лаваше</t>
-  </si>
-  <si>
     <t>Фалафель из фасоли с овощами в лаваше</t>
   </si>
   <si>
@@ -66,66 +286,27 @@
     <t>Фалафель из гречи с овощами в лаваше</t>
   </si>
   <si>
-    <t>Люля-кебаб говядина курица с овощами в лаваше</t>
-  </si>
-  <si>
-    <t>Люля-кебаб говядина свинина с овощами в лаваше</t>
-  </si>
-  <si>
     <t>фрикадельки, картофельные дольки с сырным соусом</t>
   </si>
   <si>
     <t>фрикадельки, картофельные дольки с грибным соусом</t>
   </si>
   <si>
-    <t>Суп-пюре шпинатный</t>
-  </si>
-  <si>
-    <t>Суп-пюре грибной</t>
-  </si>
-  <si>
     <t>5</t>
   </si>
   <si>
-    <t>Суп-пюре тыквенный</t>
-  </si>
-  <si>
-    <t>Слойка "Яблочный штрудель"</t>
-  </si>
-  <si>
     <t>6</t>
   </si>
   <si>
     <t>4</t>
   </si>
   <si>
-    <t>Кекс морковный</t>
-  </si>
-  <si>
-    <t>Круассан с шоколадом</t>
-  </si>
-  <si>
-    <t>Пирожок с творогом</t>
-  </si>
-  <si>
-    <t>Пирожок с творогом и вишней</t>
-  </si>
-  <si>
     <t>Розочка с яблоками и вишней</t>
   </si>
   <si>
-    <t>ТОП-менеджер #1 (грибной суп-пюре, говядина су-вид, штрудель)</t>
-  </si>
-  <si>
     <t>ТОП-менеджер #2 (грибной суп-пюре, свинина, штрудель)</t>
   </si>
   <si>
-    <t>Бизнес-леди #1 (тыквенный суп-пюре, креветка, круассан)</t>
-  </si>
-  <si>
-    <t>Бизнес-леди #2 (тыквенный суп-пюре, курица, круассан)</t>
-  </si>
-  <si>
     <t>ФРИЛАНСЕР #1 (грибной суп-пюре, курица, розочка)</t>
   </si>
   <si>
@@ -147,9 +328,6 @@
     <t>Веган #3 (шпинатный суп-пюре, фалафель фасоль, морковный кекс)</t>
   </si>
   <si>
-    <t>СУПЕРГЕРОЙ / ПРИНЦЕССА #1 (фрикадельки, картофельный дольки с сырным соусом, пирожок с творогом)</t>
-  </si>
-  <si>
     <t>СУПЕРГЕРОЙ / ПРИНЦЕССА #2 (фрикадельки, картофельный дольки с грибным соусом, пирожок с творогом)</t>
   </si>
   <si>
@@ -181,6 +359,9 @@
   </si>
   <si>
     <t>15</t>
+  </si>
+  <si>
+    <t>Default</t>
   </si>
   <si>
     <t>Среда</t>
@@ -241,6 +422,2216 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:H42"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="0" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2" s="0" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="G3" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="H3" s="0" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="F4" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="G4" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="H4" s="0" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="F5" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="G5" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="H5" s="0" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="F6" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="G6" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="H6" s="0" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="E7" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="F7" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="G7" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="H7" s="0" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="B8" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="E8" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="F8" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="G8" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="H8" s="0" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="B9" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="D9" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="E9" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="F9" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="G9" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="H9" s="0" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="B10" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="D10" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="E10" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="F10" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="G10" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="H10" s="0" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="B11" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="D11" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="E11" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="F11" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="G11" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="H11" s="0" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="B12" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="C12" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="E12" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="F12" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="G12" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="H12" s="0" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="B13" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="E13" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="F13" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="G13" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="H13" s="0" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="B14" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="C14" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="D14" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="E14" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="F14" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="G14" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="H14" s="0" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="B15" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C15" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="D15" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="E15" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="F15" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="G15" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="H15" s="0" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="B16" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="C16" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="D16" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="E16" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="F16" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="G16" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="H16" s="0" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="B17" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C17" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="D17" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="E17" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="F17" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="G17" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="H17" s="0" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="B18" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="C18" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="D18" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="E18" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="F18" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="G18" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="H18" s="0" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="B19" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="C19" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="D19" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="E19" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="F19" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="G19" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="H19" s="0" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="B20" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="C20" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="D20" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="E20" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="F20" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="G20" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="H20" s="0" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="B21" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="C21" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="D21" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="E21" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="F21" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="G21" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="H21" s="0" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="B22" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="C22" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="D22" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="E22" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="F22" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="G22" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="H22" s="0" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="B23" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C23" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="D23" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="E23" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="F23" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="G23" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="H23" s="0" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="B24" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="C24" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="D24" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="E24" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="F24" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="G24" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="H24" s="0" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="B25" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C25" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="D25" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="E25" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="F25" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="G25" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="H25" s="0" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="B26" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="C26" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="D26" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="E26" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="F26" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="G26" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="H26" s="0" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="B27" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C27" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="D27" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="E27" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="F27" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="G27" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="H27" s="0" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="B28" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C28" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="D28" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="E28" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="F28" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="G28" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="H28" s="0" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="B29" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C29" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="D29" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="E29" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="F29" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="G29" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="H29" s="0" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="B30" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="C30" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="D30" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="E30" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="F30" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="G30" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="H30" s="0" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="B31" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="C31" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="D31" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="E31" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="F31" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="G31" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="H31" s="0" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="B32" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C32" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="D32" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="E32" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="F32" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="G32" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="H32" s="0" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="B33" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C33" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="D33" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="E33" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="F33" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="G33" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="H33" s="0" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="B34" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C34" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="D34" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="E34" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="F34" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="G34" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="H34" s="0" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="B35" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="C35" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="D35" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="E35" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="F35" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="G35" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="H35" s="0" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="0" t="s">
+        <v>66</v>
+      </c>
+      <c r="B36" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="C36" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="D36" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="E36" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="F36" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="G36" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="H36" s="0" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="B37" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="C37" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="D37" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="E37" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="F37" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="G37" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="H37" s="0" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="B38" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C38" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="D38" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="E38" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="F38" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="G38" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="H38" s="0" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="B39" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C39" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="D39" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="E39" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="F39" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="G39" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="H39" s="0" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="B40" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="C40" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="D40" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="E40" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="F40" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="G40" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="H40" s="0" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="0" t="s">
+        <v>73</v>
+      </c>
+      <c r="B41" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C41" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="D41" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="E41" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="F41" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="G41" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="H41" s="0" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="0" t="s">
+        <v>74</v>
+      </c>
+      <c r="B42" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="C42" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="D42" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="E42" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="F42" s="0" t="s">
+        <v>75</v>
+      </c>
+      <c r="G42" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="H42" s="0" t="s">
+        <v>31</v>
+      </c>
+    </row>
+  </sheetData>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:H42"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="0" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="E2" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="F2" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="G2" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2" s="0" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="G3" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="H3" s="0" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="E4" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="F4" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="G4" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="H4" s="0" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="F5" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="G5" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="H5" s="0" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="F6" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="G6" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="H6" s="0" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="F7" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="G7" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="H7" s="0" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="B8" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="E8" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="F8" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="G8" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="H8" s="0" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="B9" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="D9" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="E9" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="F9" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="G9" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="H9" s="0" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="B10" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="D10" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="E10" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="F10" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="G10" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="H10" s="0" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="B11" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" s="0" t="s">
+        <v>96</v>
+      </c>
+      <c r="D11" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="E11" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="F11" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="G11" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="H11" s="0" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="B12" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="C12" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="D12" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="E12" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="F12" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="G12" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="H12" s="0" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="B13" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="D13" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="E13" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="F13" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="G13" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="H13" s="0" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="B14" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="C14" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="D14" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="E14" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="F14" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="G14" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="H14" s="0" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="B15" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C15" s="0" t="s">
+        <v>94</v>
+      </c>
+      <c r="D15" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="E15" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="F15" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="G15" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="H15" s="0" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="B16" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="C16" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="D16" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="E16" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="F16" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="G16" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="H16" s="0" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="B17" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C17" s="0" t="s">
+        <v>101</v>
+      </c>
+      <c r="D17" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="E17" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="F17" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="G17" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="H17" s="0" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="B18" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="C18" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="D18" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="E18" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="F18" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="G18" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="H18" s="0" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="B19" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="C19" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="D19" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="E19" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="F19" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="G19" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="H19" s="0" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="B20" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="C20" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="D20" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="E20" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="F20" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="G20" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="H20" s="0" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="B21" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="C21" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="D21" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="E21" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="F21" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="G21" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="H21" s="0" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="B22" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="C22" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="D22" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="E22" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="F22" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="G22" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="H22" s="0" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="B23" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C23" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="D23" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="E23" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="F23" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="G23" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="H23" s="0" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="B24" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="C24" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="D24" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="E24" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="F24" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="G24" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="H24" s="0" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="B25" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C25" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="D25" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="E25" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="F25" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="G25" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="H25" s="0" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="B26" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="C26" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="D26" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="E26" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="F26" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="G26" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="H26" s="0" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="B27" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C27" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="D27" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="E27" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="F27" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="G27" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="H27" s="0" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="B28" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C28" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="D28" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="E28" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="F28" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="G28" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="H28" s="0" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="B29" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C29" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="D29" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="E29" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="F29" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="G29" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="H29" s="0" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="B30" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="C30" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="D30" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="E30" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="F30" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="G30" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="H30" s="0" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="B31" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="C31" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="D31" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="E31" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="F31" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="G31" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="H31" s="0" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="B32" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="C32" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="D32" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="E32" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="F32" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="G32" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="H32" s="0" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="B33" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C33" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="D33" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="E33" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="F33" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="G33" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="H33" s="0" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="B34" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C34" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="D34" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="E34" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="F34" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="G34" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="H34" s="0" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="B35" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="C35" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="D35" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="E35" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="F35" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="G35" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="H35" s="0" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="0" t="s">
+        <v>66</v>
+      </c>
+      <c r="B36" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="C36" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="D36" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="E36" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="F36" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="G36" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="H36" s="0" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="B37" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="C37" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="D37" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="E37" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="F37" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="G37" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="H37" s="0" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="B38" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="C38" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="D38" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="E38" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="F38" s="0" t="s">
+        <v>92</v>
+      </c>
+      <c r="G38" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="H38" s="0" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="B39" s="0" t="s">
+        <v>112</v>
+      </c>
+      <c r="C39" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="D39" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="E39" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="F39" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="G39" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="H39" s="0" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="B40" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="C40" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="D40" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="E40" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="F40" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="G40" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="H40" s="0" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="0" t="s">
+        <v>73</v>
+      </c>
+      <c r="B41" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C41" s="0" t="s">
+        <v>94</v>
+      </c>
+      <c r="D41" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="E41" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="F41" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="G41" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="H41" s="0" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="0" t="s">
+        <v>74</v>
+      </c>
+      <c r="B42" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="C42" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="D42" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="E42" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="F42" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="G42" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="H42" s="0" t="s">
+        <v>31</v>
+      </c>
+    </row>
+  </sheetData>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:C34"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -249,376 +2640,376 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>0</v>
+        <v>116</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>1</v>
+        <v>77</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>2</v>
+        <v>78</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>4</v>
+        <v>80</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>5</v>
+        <v>80</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>7</v>
+        <v>82</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>4</v>
+        <v>79</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>9</v>
+        <v>90</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>10</v>
+        <v>79</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>11</v>
+        <v>47</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>5</v>
+        <v>89</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>10</v>
+        <v>83</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>12</v>
+        <v>84</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>4</v>
+        <v>79</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>4</v>
+        <v>79</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>13</v>
+        <v>85</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>4</v>
+        <v>79</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>4</v>
+        <v>79</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>14</v>
+        <v>86</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>4</v>
+        <v>79</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>4</v>
+        <v>79</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>15</v>
+        <v>72</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>10</v>
+        <v>83</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>4</v>
+        <v>83</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>16</v>
+        <v>70</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>4</v>
+        <v>79</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>10</v>
+        <v>79</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>17</v>
+        <v>87</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>4</v>
+        <v>79</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>4</v>
+        <v>79</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
-        <v>18</v>
+        <v>88</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>4</v>
+        <v>79</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>4</v>
+        <v>79</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0" t="s">
-        <v>19</v>
+        <v>50</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>5</v>
+        <v>79</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>4</v>
+        <v>79</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>21</v>
+        <v>109</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>9</v>
+        <v>80</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>5</v>
+        <v>91</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>4</v>
+        <v>79</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>24</v>
+        <v>89</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>25</v>
+        <v>83</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>10</v>
+        <v>83</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>10</v>
+        <v>83</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>21</v>
+        <v>109</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>4</v>
+        <v>82</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0" t="s">
-        <v>28</v>
+        <v>75</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>10</v>
+        <v>79</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>4</v>
+        <v>79</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0" t="s">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>9</v>
+        <v>83</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>4</v>
+        <v>83</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0" t="s">
-        <v>30</v>
+        <v>92</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>4</v>
+        <v>83</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>4</v>
+        <v>79</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>10</v>
+        <v>79</v>
       </c>
       <c r="C22" s="0" t="s">
-        <v>25</v>
+        <v>83</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0" t="s">
-        <v>32</v>
+        <v>93</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>4</v>
+        <v>79</v>
       </c>
       <c r="C23" s="0" t="s">
-        <v>4</v>
+        <v>79</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0" t="s">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>4</v>
+        <v>79</v>
       </c>
       <c r="C24" s="0" t="s">
-        <v>9</v>
+        <v>79</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>10</v>
+        <v>83</v>
       </c>
       <c r="C25" s="0" t="s">
-        <v>4</v>
+        <v>83</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0" t="s">
-        <v>35</v>
+        <v>94</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>4</v>
+        <v>79</v>
       </c>
       <c r="C26" s="0" t="s">
-        <v>4</v>
+        <v>82</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0" t="s">
-        <v>36</v>
+        <v>95</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>4</v>
+        <v>79</v>
       </c>
       <c r="C27" s="0" t="s">
-        <v>4</v>
+        <v>79</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0" t="s">
-        <v>37</v>
+        <v>96</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>4</v>
+        <v>79</v>
       </c>
       <c r="C28" s="0" t="s">
-        <v>4</v>
+        <v>83</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0" t="s">
-        <v>38</v>
+        <v>97</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>4</v>
+        <v>79</v>
       </c>
       <c r="C29" s="0" t="s">
-        <v>4</v>
+        <v>83</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0" t="s">
-        <v>39</v>
+        <v>98</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>4</v>
+        <v>79</v>
       </c>
       <c r="C30" s="0" t="s">
-        <v>4</v>
+        <v>79</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0" t="s">
-        <v>40</v>
+        <v>99</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>4</v>
+        <v>79</v>
       </c>
       <c r="C31" s="0" t="s">
-        <v>4</v>
+        <v>79</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0" t="s">
-        <v>41</v>
+        <v>100</v>
       </c>
       <c r="B32" s="0" t="s">
-        <v>4</v>
+        <v>79</v>
       </c>
       <c r="C32" s="0" t="s">
-        <v>4</v>
+        <v>79</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="0" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="B33" s="0" t="s">
-        <v>4</v>
+        <v>79</v>
       </c>
       <c r="C33" s="0" t="s">
-        <v>4</v>
+        <v>79</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="0" t="s">
-        <v>43</v>
+        <v>101</v>
       </c>
       <c r="B34" s="0" t="s">
-        <v>4</v>
+        <v>79</v>
       </c>
       <c r="C34" s="0" t="s">
-        <v>4</v>
+        <v>79</v>
       </c>
     </row>
   </sheetData>
@@ -626,7 +3017,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:E21"/>
   <sheetViews>
@@ -636,359 +3027,359 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>0</v>
+        <v>116</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>44</v>
+        <v>102</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>45</v>
+        <v>103</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>46</v>
+        <v>104</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>47</v>
+        <v>105</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>4</v>
+        <v>83</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>4</v>
+        <v>82</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>5</v>
+        <v>80</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>5</v>
+        <v>90</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>4</v>
+        <v>79</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>48</v>
+        <v>82</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>25</v>
+        <v>83</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>49</v>
+        <v>80</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>10</v>
+        <v>83</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>9</v>
+        <v>90</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>10</v>
+        <v>80</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>25</v>
+        <v>106</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>11</v>
+        <v>47</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>4</v>
+        <v>79</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>5</v>
+        <v>89</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>5</v>
+        <v>83</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>24</v>
+        <v>90</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>12</v>
+        <v>84</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>4</v>
+        <v>79</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>4</v>
+        <v>79</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>4</v>
+        <v>79</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>4</v>
+        <v>79</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>13</v>
+        <v>85</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>4</v>
+        <v>79</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>4</v>
+        <v>79</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>4</v>
+        <v>79</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>4</v>
+        <v>79</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>14</v>
+        <v>86</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>4</v>
+        <v>79</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>4</v>
+        <v>79</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>4</v>
+        <v>79</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>4</v>
+        <v>79</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>15</v>
+        <v>72</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>4</v>
+        <v>79</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>10</v>
+        <v>83</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>4</v>
+        <v>82</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>10</v>
+        <v>80</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>16</v>
+        <v>70</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>4</v>
+        <v>79</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>4</v>
+        <v>79</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>10</v>
+        <v>83</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>10</v>
+        <v>83</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>17</v>
+        <v>87</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>4</v>
+        <v>79</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>4</v>
+        <v>79</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>4</v>
+        <v>79</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>4</v>
+        <v>79</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
-        <v>18</v>
+        <v>88</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>4</v>
+        <v>79</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>4</v>
+        <v>79</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>4</v>
+        <v>79</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>4</v>
+        <v>79</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0" t="s">
-        <v>19</v>
+        <v>50</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>10</v>
+        <v>79</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>9</v>
+        <v>79</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>4</v>
+        <v>79</v>
       </c>
       <c r="E13" s="0" t="s">
-        <v>5</v>
+        <v>79</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>4</v>
+        <v>79</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>24</v>
+        <v>109</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>24</v>
+        <v>110</v>
       </c>
       <c r="E14" s="0" t="s">
-        <v>50</v>
+        <v>111</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>10</v>
+        <v>79</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>5</v>
+        <v>89</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>9</v>
+        <v>83</v>
       </c>
       <c r="E15" s="0" t="s">
-        <v>24</v>
+        <v>90</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>4</v>
+        <v>79</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>51</v>
+        <v>89</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>52</v>
+        <v>82</v>
       </c>
       <c r="E16" s="0" t="s">
-        <v>53</v>
+        <v>109</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>10</v>
+        <v>79</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>4</v>
+        <v>83</v>
       </c>
       <c r="D17" s="0" t="s">
-        <v>10</v>
+        <v>83</v>
       </c>
       <c r="E17" s="0" t="s">
-        <v>9</v>
+        <v>82</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>10</v>
+        <v>79</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>21</v>
+        <v>110</v>
       </c>
       <c r="D18" s="0" t="s">
-        <v>9</v>
+        <v>80</v>
       </c>
       <c r="E18" s="0" t="s">
-        <v>52</v>
+        <v>117</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0" t="s">
-        <v>28</v>
+        <v>75</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>4</v>
+        <v>79</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>10</v>
+        <v>79</v>
       </c>
       <c r="D19" s="0" t="s">
-        <v>4</v>
+        <v>79</v>
       </c>
       <c r="E19" s="0" t="s">
-        <v>10</v>
+        <v>79</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0" t="s">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>4</v>
+        <v>79</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>9</v>
+        <v>83</v>
       </c>
       <c r="D20" s="0" t="s">
-        <v>4</v>
+        <v>80</v>
       </c>
       <c r="E20" s="0" t="s">
-        <v>9</v>
+        <v>91</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0" t="s">
-        <v>30</v>
+        <v>92</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>4</v>
+        <v>79</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>4</v>
+        <v>83</v>
       </c>
       <c r="D21" s="0" t="s">
-        <v>4</v>
+        <v>82</v>
       </c>
       <c r="E21" s="0" t="s">
-        <v>4</v>
+        <v>80</v>
       </c>
     </row>
   </sheetData>
@@ -996,7 +3387,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:C34"/>
   <sheetViews>
@@ -1006,376 +3397,376 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>54</v>
+        <v>76</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>1</v>
+        <v>77</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>2</v>
+        <v>78</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>4</v>
+        <v>79</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>10</v>
+        <v>80</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>25</v>
+        <v>81</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>4</v>
+        <v>79</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>9</v>
+        <v>82</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>9</v>
+        <v>83</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>11</v>
+        <v>47</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>24</v>
+        <v>80</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>4</v>
+        <v>83</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>12</v>
+        <v>84</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>4</v>
+        <v>79</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>4</v>
+        <v>79</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>13</v>
+        <v>85</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>4</v>
+        <v>79</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>10</v>
+        <v>79</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>14</v>
+        <v>86</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>4</v>
+        <v>79</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>4</v>
+        <v>79</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>15</v>
+        <v>72</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>9</v>
+        <v>83</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>10</v>
+        <v>79</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>16</v>
+        <v>70</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>4</v>
+        <v>79</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>9</v>
+        <v>83</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>17</v>
+        <v>87</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>4</v>
+        <v>79</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>4</v>
+        <v>79</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
-        <v>18</v>
+        <v>88</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>4</v>
+        <v>79</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>4</v>
+        <v>79</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0" t="s">
-        <v>19</v>
+        <v>50</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>10</v>
+        <v>80</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>4</v>
+        <v>79</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>25</v>
+        <v>89</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>9</v>
+        <v>82</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>21</v>
+        <v>80</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>10</v>
+        <v>79</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>21</v>
+        <v>90</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>10</v>
+        <v>91</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>10</v>
+        <v>83</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>9</v>
+        <v>83</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>25</v>
+        <v>89</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>5</v>
+        <v>79</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0" t="s">
-        <v>28</v>
+        <v>75</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>4</v>
+        <v>83</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>10</v>
+        <v>79</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0" t="s">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>10</v>
+        <v>82</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>4</v>
+        <v>79</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0" t="s">
-        <v>30</v>
+        <v>92</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>9</v>
+        <v>79</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>4</v>
+        <v>79</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>4</v>
+        <v>83</v>
       </c>
       <c r="C22" s="0" t="s">
-        <v>4</v>
+        <v>91</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0" t="s">
-        <v>32</v>
+        <v>93</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>10</v>
+        <v>79</v>
       </c>
       <c r="C23" s="0" t="s">
-        <v>4</v>
+        <v>79</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0" t="s">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>4</v>
+        <v>79</v>
       </c>
       <c r="C24" s="0" t="s">
-        <v>5</v>
+        <v>82</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>4</v>
+        <v>83</v>
       </c>
       <c r="C25" s="0" t="s">
-        <v>5</v>
+        <v>79</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0" t="s">
-        <v>35</v>
+        <v>94</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>4</v>
+        <v>79</v>
       </c>
       <c r="C26" s="0" t="s">
-        <v>4</v>
+        <v>79</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0" t="s">
-        <v>36</v>
+        <v>95</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>4</v>
+        <v>79</v>
       </c>
       <c r="C27" s="0" t="s">
-        <v>4</v>
+        <v>79</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0" t="s">
-        <v>37</v>
+        <v>96</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>4</v>
+        <v>79</v>
       </c>
       <c r="C28" s="0" t="s">
-        <v>4</v>
+        <v>79</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0" t="s">
-        <v>38</v>
+        <v>97</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>4</v>
+        <v>79</v>
       </c>
       <c r="C29" s="0" t="s">
-        <v>4</v>
+        <v>79</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0" t="s">
-        <v>39</v>
+        <v>98</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>4</v>
+        <v>79</v>
       </c>
       <c r="C30" s="0" t="s">
-        <v>4</v>
+        <v>79</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0" t="s">
-        <v>40</v>
+        <v>99</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>4</v>
+        <v>79</v>
       </c>
       <c r="C31" s="0" t="s">
-        <v>4</v>
+        <v>79</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0" t="s">
-        <v>41</v>
+        <v>100</v>
       </c>
       <c r="B32" s="0" t="s">
-        <v>4</v>
+        <v>79</v>
       </c>
       <c r="C32" s="0" t="s">
-        <v>4</v>
+        <v>79</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="0" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="B33" s="0" t="s">
-        <v>4</v>
+        <v>79</v>
       </c>
       <c r="C33" s="0" t="s">
-        <v>4</v>
+        <v>79</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="0" t="s">
-        <v>43</v>
+        <v>101</v>
       </c>
       <c r="B34" s="0" t="s">
-        <v>4</v>
+        <v>79</v>
       </c>
       <c r="C34" s="0" t="s">
-        <v>4</v>
+        <v>79</v>
       </c>
     </row>
   </sheetData>
@@ -1383,7 +3774,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:E21"/>
   <sheetViews>
@@ -1393,359 +3784,1464 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>54</v>
+        <v>76</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>44</v>
+        <v>102</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>45</v>
+        <v>103</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>46</v>
+        <v>104</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>47</v>
+        <v>105</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>4</v>
+        <v>79</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>10</v>
+        <v>79</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>10</v>
+        <v>80</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>9</v>
+        <v>80</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>4</v>
+        <v>79</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>25</v>
+        <v>106</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>4</v>
+        <v>91</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>25</v>
+        <v>107</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>4</v>
+        <v>83</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>9</v>
+        <v>82</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>21</v>
+        <v>83</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>51</v>
+        <v>91</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>11</v>
+        <v>47</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>10</v>
+        <v>79</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>21</v>
+        <v>80</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>5</v>
+        <v>80</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>7</v>
+        <v>90</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>12</v>
+        <v>84</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>4</v>
+        <v>79</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>4</v>
+        <v>79</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>4</v>
+        <v>79</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>4</v>
+        <v>79</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>13</v>
+        <v>85</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>4</v>
+        <v>79</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>4</v>
+        <v>79</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>10</v>
+        <v>79</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>10</v>
+        <v>79</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>14</v>
+        <v>86</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>4</v>
+        <v>79</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>4</v>
+        <v>79</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>4</v>
+        <v>79</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>4</v>
+        <v>79</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>15</v>
+        <v>72</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>10</v>
+        <v>79</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>10</v>
+        <v>83</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>10</v>
+        <v>79</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>5</v>
+        <v>83</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>16</v>
+        <v>70</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>4</v>
+        <v>79</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>4</v>
+        <v>79</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>9</v>
+        <v>83</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>9</v>
+        <v>83</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>17</v>
+        <v>87</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>4</v>
+        <v>79</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>4</v>
+        <v>79</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>4</v>
+        <v>79</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>4</v>
+        <v>79</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
-        <v>18</v>
+        <v>88</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>4</v>
+        <v>79</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>4</v>
+        <v>79</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>4</v>
+        <v>79</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>4</v>
+        <v>79</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0" t="s">
-        <v>19</v>
+        <v>50</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>4</v>
+        <v>83</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>10</v>
+        <v>82</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>4</v>
+        <v>79</v>
       </c>
       <c r="E13" s="0" t="s">
-        <v>10</v>
+        <v>80</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>10</v>
+        <v>79</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>25</v>
+        <v>90</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>9</v>
+        <v>90</v>
       </c>
       <c r="E14" s="0" t="s">
-        <v>51</v>
+        <v>108</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>4</v>
+        <v>83</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>21</v>
+        <v>80</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>51</v>
+        <v>82</v>
       </c>
       <c r="E15" s="0" t="s">
-        <v>50</v>
+        <v>90</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>10</v>
+        <v>79</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>21</v>
+        <v>109</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>10</v>
+        <v>110</v>
       </c>
       <c r="E16" s="0" t="s">
-        <v>51</v>
+        <v>111</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>4</v>
+        <v>83</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>10</v>
+        <v>79</v>
       </c>
       <c r="D17" s="0" t="s">
-        <v>9</v>
+        <v>83</v>
       </c>
       <c r="E17" s="0" t="s">
-        <v>5</v>
+        <v>82</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>4</v>
+        <v>83</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>25</v>
+        <v>89</v>
       </c>
       <c r="D18" s="0" t="s">
-        <v>7</v>
+        <v>82</v>
       </c>
       <c r="E18" s="0" t="s">
-        <v>55</v>
+        <v>110</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0" t="s">
-        <v>28</v>
+        <v>75</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>4</v>
+        <v>79</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>4</v>
+        <v>83</v>
       </c>
       <c r="D19" s="0" t="s">
-        <v>10</v>
+        <v>79</v>
       </c>
       <c r="E19" s="0" t="s">
-        <v>10</v>
+        <v>83</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0" t="s">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>4</v>
+        <v>79</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>10</v>
+        <v>82</v>
       </c>
       <c r="D20" s="0" t="s">
-        <v>4</v>
+        <v>79</v>
       </c>
       <c r="E20" s="0" t="s">
-        <v>10</v>
+        <v>82</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0" t="s">
-        <v>30</v>
+        <v>92</v>
       </c>
       <c r="B21" s="0" t="s">
+        <v>79</v>
+      </c>
+      <c r="C21" s="0" t="s">
+        <v>79</v>
+      </c>
+      <c r="D21" s="0" t="s">
+        <v>79</v>
+      </c>
+      <c r="E21" s="0" t="s">
+        <v>79</v>
+      </c>
+    </row>
+  </sheetData>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:H42"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="0" t="s">
         <v>4</v>
       </c>
+      <c r="F1" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="0" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="E2" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="G2" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2" s="0" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="G3" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="H3" s="0" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="E4" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="F4" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="H4" s="0" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="E5" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="F5" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="G5" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="H5" s="0" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="F6" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="G6" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="H6" s="0" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="F7" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="G7" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="H7" s="0" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="B8" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="E8" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="F8" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="G8" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="H8" s="0" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="B9" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" s="0" t="s">
+        <v>101</v>
+      </c>
+      <c r="D9" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="E9" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="F9" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="G9" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="H9" s="0" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="B10" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="D10" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="E10" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="F10" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="G10" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="H10" s="0" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="B11" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="D11" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="E11" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="F11" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="G11" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="H11" s="0" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="B12" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="C12" s="0" t="s">
+        <v>93</v>
+      </c>
+      <c r="D12" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="E12" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="F12" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="G12" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="H12" s="0" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="B13" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="D13" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="E13" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="F13" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="G13" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="H13" s="0" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="B14" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="C14" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="D14" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="E14" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="F14" s="0" t="s">
+        <v>92</v>
+      </c>
+      <c r="G14" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="H14" s="0" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="B15" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C15" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="D15" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="E15" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="F15" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="G15" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="H15" s="0" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="B16" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="C16" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="D16" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="E16" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="F16" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="G16" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="H16" s="0" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="B17" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C17" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="D17" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="E17" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="F17" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="G17" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="H17" s="0" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="B18" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="C18" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="D18" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="E18" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="F18" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="G18" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="H18" s="0" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="B19" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="C19" s="0" t="s">
+        <v>101</v>
+      </c>
+      <c r="D19" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="E19" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="F19" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="G19" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="H19" s="0" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="B20" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="C20" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="D20" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="E20" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="F20" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="G20" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="H20" s="0" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="B21" s="0" t="s">
+        <v>49</v>
+      </c>
       <c r="C21" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="D21" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="E21" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="F21" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="G21" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="H21" s="0" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="B22" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="C22" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="D22" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="E22" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="F22" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="G22" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="H22" s="0" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="B23" s="0" t="s">
         <v>9</v>
       </c>
-      <c r="D21" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="E21" s="0" t="s">
+      <c r="C23" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="D23" s="0" t="s">
+        <v>85</v>
+      </c>
+      <c r="E23" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="F23" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="G23" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="H23" s="0" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="B24" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="C24" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="D24" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="E24" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="F24" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="G24" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="H24" s="0" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="B25" s="0" t="s">
         <v>9</v>
+      </c>
+      <c r="C25" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="D25" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="E25" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="F25" s="0" t="s">
+        <v>75</v>
+      </c>
+      <c r="G25" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="H25" s="0" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="B26" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="C26" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="D26" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="E26" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="F26" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="G26" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="H26" s="0" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="B27" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C27" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="D27" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="E27" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="F27" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="G27" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="H27" s="0" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="B28" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C28" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="D28" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="E28" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="F28" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="G28" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="H28" s="0" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="B29" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C29" s="0" t="s">
+        <v>93</v>
+      </c>
+      <c r="D29" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="E29" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="F29" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="G29" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="H29" s="0" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="B30" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="C30" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="D30" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="E30" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="F30" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="G30" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="H30" s="0" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="B31" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="C31" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="D31" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="E31" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="F31" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="G31" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="H31" s="0" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="B32" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C32" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="D32" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="E32" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="F32" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="G32" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="H32" s="0" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="B33" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C33" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="D33" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="E33" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="F33" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="G33" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="H33" s="0" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="B34" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C34" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="D34" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="E34" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="F34" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="G34" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="H34" s="0" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="B35" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="C35" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="D35" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="E35" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="F35" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="G35" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="H35" s="0" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="0" t="s">
+        <v>66</v>
+      </c>
+      <c r="B36" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="C36" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="D36" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="E36" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="F36" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="G36" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="H36" s="0" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="B37" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="C37" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="D37" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="E37" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="F37" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="G37" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="H37" s="0" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="B38" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C38" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="D38" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="E38" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="F38" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="G38" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="H38" s="0" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="B39" s="0" t="s">
+        <v>112</v>
+      </c>
+      <c r="C39" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="D39" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="E39" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="F39" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="G39" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="H39" s="0" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="B40" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="C40" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="D40" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="E40" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="F40" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="G40" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="H40" s="0" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="0" t="s">
+        <v>73</v>
+      </c>
+      <c r="B41" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C41" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="D41" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="E41" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="F41" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="G41" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="H41" s="0" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="0" t="s">
+        <v>74</v>
+      </c>
+      <c r="B42" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="C42" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="D42" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="E42" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="F42" s="0" t="s">
+        <v>92</v>
+      </c>
+      <c r="G42" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="H42" s="0" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -1763,376 +5259,376 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>56</v>
+        <v>113</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>1</v>
+        <v>77</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>2</v>
+        <v>78</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>5</v>
+        <v>79</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>10</v>
+        <v>83</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>5</v>
+        <v>91</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>4</v>
+        <v>79</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>5</v>
+        <v>82</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>4</v>
+        <v>82</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>11</v>
+        <v>47</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>9</v>
+        <v>90</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>25</v>
+        <v>79</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>12</v>
+        <v>84</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>4</v>
+        <v>79</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>10</v>
+        <v>79</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>13</v>
+        <v>85</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>4</v>
+        <v>79</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>4</v>
+        <v>83</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>14</v>
+        <v>86</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>4</v>
+        <v>79</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>4</v>
+        <v>79</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>15</v>
+        <v>72</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>5</v>
+        <v>82</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>10</v>
+        <v>83</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>16</v>
+        <v>70</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>10</v>
+        <v>79</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>4</v>
+        <v>82</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>17</v>
+        <v>87</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>4</v>
+        <v>79</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>4</v>
+        <v>79</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
-        <v>18</v>
+        <v>88</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>4</v>
+        <v>79</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>4</v>
+        <v>79</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0" t="s">
-        <v>19</v>
+        <v>50</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>9</v>
+        <v>83</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>4</v>
+        <v>79</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>21</v>
+        <v>91</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>10</v>
+        <v>82</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>5</v>
+        <v>89</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>10</v>
+        <v>83</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>25</v>
+        <v>89</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>21</v>
+        <v>83</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>9</v>
+        <v>83</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>4</v>
+        <v>82</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>21</v>
+        <v>91</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>10</v>
+        <v>80</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0" t="s">
-        <v>28</v>
+        <v>75</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>10</v>
+        <v>79</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>4</v>
+        <v>83</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0" t="s">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>10</v>
+        <v>83</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>4</v>
+        <v>79</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0" t="s">
-        <v>30</v>
+        <v>92</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>10</v>
+        <v>82</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>4</v>
+        <v>79</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>4</v>
+        <v>79</v>
       </c>
       <c r="C22" s="0" t="s">
-        <v>4</v>
+        <v>79</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0" t="s">
-        <v>32</v>
+        <v>93</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>4</v>
+        <v>83</v>
       </c>
       <c r="C23" s="0" t="s">
-        <v>10</v>
+        <v>79</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0" t="s">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>10</v>
+        <v>79</v>
       </c>
       <c r="C24" s="0" t="s">
-        <v>10</v>
+        <v>80</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>4</v>
+        <v>79</v>
       </c>
       <c r="C25" s="0" t="s">
-        <v>9</v>
+        <v>80</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0" t="s">
-        <v>35</v>
+        <v>94</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>4</v>
+        <v>79</v>
       </c>
       <c r="C26" s="0" t="s">
-        <v>10</v>
+        <v>79</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0" t="s">
-        <v>36</v>
+        <v>95</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>4</v>
+        <v>79</v>
       </c>
       <c r="C27" s="0" t="s">
-        <v>4</v>
+        <v>79</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0" t="s">
-        <v>37</v>
+        <v>96</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>4</v>
+        <v>79</v>
       </c>
       <c r="C28" s="0" t="s">
-        <v>10</v>
+        <v>79</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0" t="s">
-        <v>38</v>
+        <v>97</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>4</v>
+        <v>79</v>
       </c>
       <c r="C29" s="0" t="s">
-        <v>4</v>
+        <v>79</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0" t="s">
-        <v>39</v>
+        <v>98</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>4</v>
+        <v>79</v>
       </c>
       <c r="C30" s="0" t="s">
-        <v>4</v>
+        <v>79</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0" t="s">
-        <v>40</v>
+        <v>99</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>4</v>
+        <v>79</v>
       </c>
       <c r="C31" s="0" t="s">
-        <v>4</v>
+        <v>79</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0" t="s">
-        <v>41</v>
+        <v>100</v>
       </c>
       <c r="B32" s="0" t="s">
-        <v>4</v>
+        <v>79</v>
       </c>
       <c r="C32" s="0" t="s">
-        <v>4</v>
+        <v>79</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="0" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="B33" s="0" t="s">
-        <v>4</v>
+        <v>79</v>
       </c>
       <c r="C33" s="0" t="s">
-        <v>4</v>
+        <v>79</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="0" t="s">
-        <v>43</v>
+        <v>101</v>
       </c>
       <c r="B34" s="0" t="s">
-        <v>4</v>
+        <v>79</v>
       </c>
       <c r="C34" s="0" t="s">
-        <v>4</v>
+        <v>79</v>
       </c>
     </row>
   </sheetData>
@@ -2150,359 +5646,359 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>56</v>
+        <v>113</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>44</v>
+        <v>102</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>45</v>
+        <v>103</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>46</v>
+        <v>104</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>47</v>
+        <v>105</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>10</v>
+        <v>79</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>9</v>
+        <v>83</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>9</v>
+        <v>83</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>21</v>
+        <v>82</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>4</v>
+        <v>79</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>5</v>
+        <v>91</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>4</v>
+        <v>79</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>5</v>
+        <v>91</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>10</v>
+        <v>79</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>9</v>
+        <v>82</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>5</v>
+        <v>89</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>24</v>
+        <v>109</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>11</v>
+        <v>47</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>4</v>
+        <v>83</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>5</v>
+        <v>89</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>21</v>
+        <v>80</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>52</v>
+        <v>81</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>12</v>
+        <v>84</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>4</v>
+        <v>79</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>4</v>
+        <v>79</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>10</v>
+        <v>79</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>10</v>
+        <v>79</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>13</v>
+        <v>85</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>4</v>
+        <v>79</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>4</v>
+        <v>79</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>4</v>
+        <v>83</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>4</v>
+        <v>83</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>14</v>
+        <v>86</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>4</v>
+        <v>79</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>4</v>
+        <v>79</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>4</v>
+        <v>79</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>4</v>
+        <v>79</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>15</v>
+        <v>72</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>4</v>
+        <v>83</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>5</v>
+        <v>83</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>10</v>
+        <v>83</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>25</v>
+        <v>80</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>16</v>
+        <v>70</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>4</v>
+        <v>79</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>10</v>
+        <v>79</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>10</v>
+        <v>82</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>9</v>
+        <v>82</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>17</v>
+        <v>87</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>4</v>
+        <v>79</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>4</v>
+        <v>79</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>4</v>
+        <v>79</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>4</v>
+        <v>79</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
-        <v>18</v>
+        <v>88</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>4</v>
+        <v>79</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>4</v>
+        <v>79</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>4</v>
+        <v>79</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>4</v>
+        <v>79</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0" t="s">
-        <v>19</v>
+        <v>50</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>4</v>
+        <v>79</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>9</v>
+        <v>83</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>4</v>
+        <v>79</v>
       </c>
       <c r="E13" s="0" t="s">
-        <v>9</v>
+        <v>83</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>10</v>
+        <v>83</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>25</v>
+        <v>91</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>25</v>
+        <v>82</v>
       </c>
       <c r="E14" s="0" t="s">
-        <v>7</v>
+        <v>109</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>4</v>
+        <v>79</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>25</v>
+        <v>89</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>25</v>
+        <v>109</v>
       </c>
       <c r="E15" s="0" t="s">
-        <v>52</v>
+        <v>108</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>4</v>
+        <v>83</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>25</v>
+        <v>89</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>24</v>
+        <v>83</v>
       </c>
       <c r="E16" s="0" t="s">
-        <v>48</v>
+        <v>109</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>4</v>
+        <v>79</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>9</v>
+        <v>83</v>
       </c>
       <c r="D17" s="0" t="s">
-        <v>4</v>
+        <v>82</v>
       </c>
       <c r="E17" s="0" t="s">
-        <v>9</v>
+        <v>80</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>10</v>
+        <v>79</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>21</v>
+        <v>91</v>
       </c>
       <c r="D18" s="0" t="s">
-        <v>25</v>
+        <v>81</v>
       </c>
       <c r="E18" s="0" t="s">
-        <v>48</v>
+        <v>114</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0" t="s">
-        <v>28</v>
+        <v>75</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>4</v>
+        <v>79</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>10</v>
+        <v>79</v>
       </c>
       <c r="D19" s="0" t="s">
-        <v>4</v>
+        <v>83</v>
       </c>
       <c r="E19" s="0" t="s">
-        <v>10</v>
+        <v>83</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0" t="s">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>4</v>
+        <v>79</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>10</v>
+        <v>83</v>
       </c>
       <c r="D20" s="0" t="s">
-        <v>10</v>
+        <v>79</v>
       </c>
       <c r="E20" s="0" t="s">
-        <v>9</v>
+        <v>83</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0" t="s">
-        <v>30</v>
+        <v>92</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>4</v>
+        <v>79</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>10</v>
+        <v>82</v>
       </c>
       <c r="D21" s="0" t="s">
-        <v>10</v>
+        <v>79</v>
       </c>
       <c r="E21" s="0" t="s">
-        <v>9</v>
+        <v>82</v>
       </c>
     </row>
   </sheetData>
@@ -2511,6 +6007,1111 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:H42"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="0" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="E2" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2" s="0" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="G3" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="H3" s="0" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>101</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="G4" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="H4" s="0" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="E5" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="F5" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="G5" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="H5" s="0" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="F6" s="0" t="s">
+        <v>75</v>
+      </c>
+      <c r="G6" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="H6" s="0" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="E7" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="F7" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="G7" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="H7" s="0" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="B8" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="E8" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="F8" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="G8" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="H8" s="0" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="B9" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" s="0" t="s">
+        <v>101</v>
+      </c>
+      <c r="D9" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="E9" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="F9" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="G9" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="H9" s="0" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="B10" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="D10" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="E10" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="F10" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="G10" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="H10" s="0" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="B11" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" s="0" t="s">
+        <v>93</v>
+      </c>
+      <c r="D11" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="E11" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="F11" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="G11" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="H11" s="0" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="B12" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="C12" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="D12" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="E12" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="F12" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="G12" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="H12" s="0" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="B13" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" s="0" t="s">
+        <v>96</v>
+      </c>
+      <c r="D13" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="E13" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="F13" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="G13" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="H13" s="0" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="B14" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="C14" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="D14" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="E14" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="F14" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="G14" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="H14" s="0" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="B15" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C15" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="D15" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="E15" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="F15" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="G15" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="H15" s="0" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="B16" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="C16" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="D16" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="E16" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="F16" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="G16" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="H16" s="0" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="B17" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C17" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="D17" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="E17" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="F17" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="G17" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="H17" s="0" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="B18" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="C18" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="D18" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="E18" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="F18" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="G18" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="H18" s="0" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="B19" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="C19" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="D19" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="E19" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="F19" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="G19" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="H19" s="0" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="B20" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="C20" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="D20" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="E20" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="F20" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="G20" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="H20" s="0" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="B21" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="C21" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="D21" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="E21" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="F21" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="G21" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="H21" s="0" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="B22" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="C22" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="D22" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="E22" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="F22" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="G22" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="H22" s="0" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="B23" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C23" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="D23" s="0" t="s">
+        <v>84</v>
+      </c>
+      <c r="E23" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="F23" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="G23" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="H23" s="0" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="B24" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="C24" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="D24" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="E24" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="F24" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="G24" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="H24" s="0" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="B25" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C25" s="0" t="s">
+        <v>101</v>
+      </c>
+      <c r="D25" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="E25" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="F25" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="G25" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="H25" s="0" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="B26" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="C26" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="D26" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="E26" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="F26" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="G26" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="H26" s="0" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="B27" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C27" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="D27" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="E27" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="F27" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="G27" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="H27" s="0" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="B28" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C28" s="0" t="s">
+        <v>94</v>
+      </c>
+      <c r="D28" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="E28" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="F28" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="G28" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="H28" s="0" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="B29" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C29" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="D29" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="E29" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="F29" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="G29" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="H29" s="0" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="B30" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="C30" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="D30" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="E30" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="F30" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="G30" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="H30" s="0" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="B31" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="C31" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="D31" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="E31" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="F31" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="G31" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="H31" s="0" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="B32" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C32" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="D32" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="E32" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="F32" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="G32" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="H32" s="0" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="B33" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C33" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="D33" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="E33" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="F33" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="G33" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="H33" s="0" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="B34" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C34" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="D34" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="E34" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="F34" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="G34" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="H34" s="0" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="B35" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="C35" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="D35" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="E35" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="F35" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="G35" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="H35" s="0" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="0" t="s">
+        <v>66</v>
+      </c>
+      <c r="B36" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="C36" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="D36" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="E36" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="F36" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="G36" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="H36" s="0" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="B37" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="C37" s="0" t="s">
+        <v>100</v>
+      </c>
+      <c r="D37" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="E37" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="F37" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="G37" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="H37" s="0" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="B38" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C38" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="D38" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="E38" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="F38" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="G38" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="H38" s="0" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="B39" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C39" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="D39" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="E39" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="F39" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="G39" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="H39" s="0" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="B40" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="C40" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="D40" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="E40" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="F40" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="G40" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="H40" s="0" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="0" t="s">
+        <v>73</v>
+      </c>
+      <c r="B41" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C41" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="D41" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="E41" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="F41" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="G41" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="H41" s="0" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="0" t="s">
+        <v>74</v>
+      </c>
+      <c r="B42" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="C42" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="D42" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="E42" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="F42" s="0" t="s">
+        <v>92</v>
+      </c>
+      <c r="G42" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="H42" s="0" t="s">
+        <v>31</v>
+      </c>
+    </row>
+  </sheetData>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:C34"/>
   <sheetViews>
@@ -2520,376 +7121,376 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>57</v>
+        <v>115</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>1</v>
+        <v>77</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>2</v>
+        <v>78</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>5</v>
+        <v>80</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>5</v>
+        <v>83</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>9</v>
+        <v>80</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>4</v>
+        <v>79</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>24</v>
+        <v>80</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>4</v>
+        <v>79</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>11</v>
+        <v>47</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>21</v>
+        <v>82</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>10</v>
+        <v>91</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>12</v>
+        <v>84</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>4</v>
+        <v>79</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>4</v>
+        <v>83</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>13</v>
+        <v>85</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>4</v>
+        <v>79</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>4</v>
+        <v>79</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>14</v>
+        <v>86</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>4</v>
+        <v>79</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>4</v>
+        <v>79</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>15</v>
+        <v>72</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>10</v>
+        <v>80</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>10</v>
+        <v>83</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>16</v>
+        <v>70</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>4</v>
+        <v>83</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>4</v>
+        <v>79</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>17</v>
+        <v>87</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>4</v>
+        <v>79</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>4</v>
+        <v>79</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
-        <v>18</v>
+        <v>88</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>4</v>
+        <v>79</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>4</v>
+        <v>79</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0" t="s">
-        <v>19</v>
+        <v>50</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>4</v>
+        <v>82</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>4</v>
+        <v>79</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>51</v>
+        <v>89</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>5</v>
+        <v>83</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>25</v>
+        <v>80</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>4</v>
+        <v>83</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>21</v>
+        <v>91</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>10</v>
+        <v>89</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>10</v>
+        <v>82</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>10</v>
+        <v>79</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>51</v>
+        <v>89</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>9</v>
+        <v>83</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0" t="s">
-        <v>28</v>
+        <v>75</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>4</v>
+        <v>83</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>4</v>
+        <v>79</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0" t="s">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>10</v>
+        <v>83</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>10</v>
+        <v>79</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0" t="s">
-        <v>30</v>
+        <v>92</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>10</v>
+        <v>83</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>4</v>
+        <v>79</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>4</v>
+        <v>79</v>
       </c>
       <c r="C22" s="0" t="s">
-        <v>10</v>
+        <v>79</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0" t="s">
-        <v>32</v>
+        <v>93</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>4</v>
+        <v>79</v>
       </c>
       <c r="C23" s="0" t="s">
-        <v>4</v>
+        <v>83</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0" t="s">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>4</v>
+        <v>83</v>
       </c>
       <c r="C24" s="0" t="s">
-        <v>4</v>
+        <v>83</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>10</v>
+        <v>79</v>
       </c>
       <c r="C25" s="0" t="s">
-        <v>10</v>
+        <v>82</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0" t="s">
-        <v>35</v>
+        <v>94</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>4</v>
+        <v>79</v>
       </c>
       <c r="C26" s="0" t="s">
-        <v>9</v>
+        <v>83</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0" t="s">
-        <v>36</v>
+        <v>95</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>4</v>
+        <v>79</v>
       </c>
       <c r="C27" s="0" t="s">
-        <v>4</v>
+        <v>79</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0" t="s">
-        <v>37</v>
+        <v>96</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>4</v>
+        <v>79</v>
       </c>
       <c r="C28" s="0" t="s">
-        <v>10</v>
+        <v>83</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0" t="s">
-        <v>38</v>
+        <v>97</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>4</v>
+        <v>79</v>
       </c>
       <c r="C29" s="0" t="s">
-        <v>10</v>
+        <v>79</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0" t="s">
-        <v>39</v>
+        <v>98</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>4</v>
+        <v>79</v>
       </c>
       <c r="C30" s="0" t="s">
-        <v>4</v>
+        <v>79</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0" t="s">
-        <v>40</v>
+        <v>99</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>4</v>
+        <v>79</v>
       </c>
       <c r="C31" s="0" t="s">
-        <v>4</v>
+        <v>79</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0" t="s">
-        <v>41</v>
+        <v>100</v>
       </c>
       <c r="B32" s="0" t="s">
-        <v>4</v>
+        <v>79</v>
       </c>
       <c r="C32" s="0" t="s">
-        <v>4</v>
+        <v>79</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="0" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="B33" s="0" t="s">
-        <v>4</v>
+        <v>79</v>
       </c>
       <c r="C33" s="0" t="s">
-        <v>4</v>
+        <v>79</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="0" t="s">
-        <v>43</v>
+        <v>101</v>
       </c>
       <c r="B34" s="0" t="s">
-        <v>4</v>
+        <v>79</v>
       </c>
       <c r="C34" s="0" t="s">
-        <v>4</v>
+        <v>79</v>
       </c>
     </row>
   </sheetData>
@@ -2897,7 +7498,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:E21"/>
   <sheetViews>
@@ -2907,359 +7508,359 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>57</v>
+        <v>115</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>44</v>
+        <v>102</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>45</v>
+        <v>103</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>46</v>
+        <v>104</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>47</v>
+        <v>105</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>10</v>
+        <v>83</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>9</v>
+        <v>82</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>5</v>
+        <v>82</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>24</v>
+        <v>89</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>4</v>
+        <v>79</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>9</v>
+        <v>80</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>10</v>
+        <v>79</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>5</v>
+        <v>80</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>10</v>
+        <v>83</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>24</v>
+        <v>82</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>5</v>
+        <v>80</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>48</v>
+        <v>90</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>11</v>
+        <v>47</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>4</v>
+        <v>79</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>21</v>
+        <v>80</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>10</v>
+        <v>89</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>24</v>
+        <v>110</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>12</v>
+        <v>84</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>4</v>
+        <v>79</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>4</v>
+        <v>79</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>4</v>
+        <v>83</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>4</v>
+        <v>83</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>13</v>
+        <v>85</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>4</v>
+        <v>79</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>4</v>
+        <v>79</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>4</v>
+        <v>79</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>4</v>
+        <v>79</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>14</v>
+        <v>86</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>4</v>
+        <v>79</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>4</v>
+        <v>79</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>4</v>
+        <v>79</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>4</v>
+        <v>79</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>15</v>
+        <v>72</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>4</v>
+        <v>79</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>10</v>
+        <v>80</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>9</v>
+        <v>83</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>5</v>
+        <v>91</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>16</v>
+        <v>70</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>4</v>
+        <v>79</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>4</v>
+        <v>83</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>10</v>
+        <v>83</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>10</v>
+        <v>82</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>17</v>
+        <v>87</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>4</v>
+        <v>79</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>4</v>
+        <v>79</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>4</v>
+        <v>79</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>4</v>
+        <v>79</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
-        <v>18</v>
+        <v>88</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>4</v>
+        <v>79</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>4</v>
+        <v>79</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>4</v>
+        <v>79</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>4</v>
+        <v>79</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0" t="s">
-        <v>19</v>
+        <v>50</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>4</v>
+        <v>79</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>4</v>
+        <v>82</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>4</v>
+        <v>79</v>
       </c>
       <c r="E13" s="0" t="s">
-        <v>4</v>
+        <v>82</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>4</v>
+        <v>83</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>51</v>
+        <v>91</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>52</v>
+        <v>91</v>
       </c>
       <c r="E14" s="0" t="s">
-        <v>53</v>
+        <v>81</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>4</v>
+        <v>79</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>21</v>
+        <v>91</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>10</v>
+        <v>91</v>
       </c>
       <c r="E15" s="0" t="s">
-        <v>24</v>
+        <v>110</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>4</v>
+        <v>79</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>21</v>
+        <v>91</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>9</v>
+        <v>90</v>
       </c>
       <c r="E16" s="0" t="s">
-        <v>51</v>
+        <v>106</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>4</v>
+        <v>79</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>10</v>
+        <v>82</v>
       </c>
       <c r="D17" s="0" t="s">
-        <v>10</v>
+        <v>79</v>
       </c>
       <c r="E17" s="0" t="s">
-        <v>9</v>
+        <v>82</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>4</v>
+        <v>83</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>52</v>
+        <v>89</v>
       </c>
       <c r="D18" s="0" t="s">
-        <v>5</v>
+        <v>91</v>
       </c>
       <c r="E18" s="0" t="s">
-        <v>58</v>
+        <v>106</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0" t="s">
-        <v>28</v>
+        <v>75</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>4</v>
+        <v>79</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>4</v>
+        <v>83</v>
       </c>
       <c r="D19" s="0" t="s">
-        <v>4</v>
+        <v>79</v>
       </c>
       <c r="E19" s="0" t="s">
-        <v>4</v>
+        <v>83</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0" t="s">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>4</v>
+        <v>79</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>10</v>
+        <v>83</v>
       </c>
       <c r="D20" s="0" t="s">
-        <v>5</v>
+        <v>83</v>
       </c>
       <c r="E20" s="0" t="s">
-        <v>25</v>
+        <v>82</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0" t="s">
-        <v>30</v>
+        <v>92</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>4</v>
+        <v>79</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>10</v>
+        <v>83</v>
       </c>
       <c r="D21" s="0" t="s">
-        <v>9</v>
+        <v>83</v>
       </c>
       <c r="E21" s="0" t="s">
-        <v>5</v>
+        <v>82</v>
       </c>
     </row>
   </sheetData>

--- a/WorkLibary/bin/Debug/net7.0/AAA.xlsx
+++ b/WorkLibary/bin/Debug/net7.0/AAA.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
   <si>
     <t>ФИО</t>
   </si>
@@ -49,334 +49,307 @@
     <t>Локация</t>
   </si>
   <si>
-    <t>Chmir</t>
+    <t>Абазов Б</t>
   </si>
   <si>
     <t>Вечерняя (15:30)</t>
   </si>
   <si>
+    <t>Бизнес-леди #1 (тыквенный суп-пюре, креветка, круассан)</t>
+  </si>
+  <si>
     <t/>
   </si>
   <si>
+    <t>Да</t>
+  </si>
+  <si>
+    <t>Трамвайный</t>
+  </si>
+  <si>
+    <t>Балабанова Светлана</t>
+  </si>
+  <si>
+    <t>Дневная (12:30)</t>
+  </si>
+  <si>
+    <t>Люля-кебаб говядина свинина с овощами в лаваше</t>
+  </si>
+  <si>
+    <t>Круассан с шоколадом</t>
+  </si>
+  <si>
+    <t>Нет</t>
+  </si>
+  <si>
+    <t>Берсенева</t>
+  </si>
+  <si>
+    <t>ТОП-менеджер #1 (грибной суп-пюре, говядина су-вид, штрудель)</t>
+  </si>
+  <si>
+    <t>Большаков</t>
+  </si>
+  <si>
+    <t>Курица жареная на углях с овощами в лаваше</t>
+  </si>
+  <si>
+    <t>Суп-пюре грибной</t>
+  </si>
+  <si>
+    <t>Слойка "Яблочный штрудель"</t>
+  </si>
+  <si>
+    <t>Борисова</t>
+  </si>
+  <si>
     <t>Свинина жареная на углях с овощами в лаваше</t>
   </si>
   <si>
-    <t>Слойка "Яблочный штрудель"</t>
-  </si>
-  <si>
-    <t>Нет</t>
-  </si>
-  <si>
-    <t>Трамвайная</t>
-  </si>
-  <si>
-    <t>Абазов Беслан Русланович</t>
-  </si>
-  <si>
-    <t>Дневная (12:30)</t>
-  </si>
-  <si>
-    <t>Бизнес-леди #1 (тыквенный суп-пюре, креветка, круассан)</t>
-  </si>
-  <si>
-    <t>Аронсон</t>
+    <t>Гагарина</t>
+  </si>
+  <si>
+    <t>Боярских Надежда Николаевна</t>
+  </si>
+  <si>
+    <t>СУПЕРГЕРОЙ / ПРИНЦЕССА #1 (фрикадельки, картофельный дольки с сырным соусом, пирожок с творогом)</t>
+  </si>
+  <si>
+    <t>Вальдбауэр Даниил Андреевич</t>
+  </si>
+  <si>
+    <t>Бизнес-леди #2 (тыквенный суп-пюре, курица, круассан)</t>
+  </si>
+  <si>
+    <t>Водопьянова Наталья Сергеевна</t>
+  </si>
+  <si>
+    <t>Герасимов</t>
+  </si>
+  <si>
+    <t>Глумнушина Полина</t>
+  </si>
+  <si>
+    <t>Жареные креветки с овощами в лаваше</t>
+  </si>
+  <si>
+    <t>Горинская</t>
+  </si>
+  <si>
+    <t>Гуськов</t>
+  </si>
+  <si>
+    <t>СУПЕРГЕРОЙ / ПРИНЦЕССА #2 (фрикадельки, картофельный дольки с грибным соусом, пирожок с творогом)</t>
+  </si>
+  <si>
+    <t>Екатерина Ивановна Преображенская</t>
+  </si>
+  <si>
+    <t>Зеленин Артем</t>
+  </si>
+  <si>
+    <t>Изотова Анна</t>
+  </si>
+  <si>
+    <t>Пирожок с творогом и вишней</t>
+  </si>
+  <si>
+    <t>Илюшина</t>
+  </si>
+  <si>
+    <t>Суп-пюре тыквенный</t>
+  </si>
+  <si>
+    <t>Пирожок с творогом</t>
+  </si>
+  <si>
+    <t>Ленская Александра Сергеевна</t>
+  </si>
+  <si>
+    <t>Мецгер А. А.</t>
   </si>
   <si>
     <t>Говядина су-вид с овощами в лаваше</t>
   </si>
   <si>
-    <t>Суп-пюре тыквенный</t>
-  </si>
-  <si>
-    <t>Круассан с шоколадом</t>
-  </si>
-  <si>
-    <t>Балабанова С.В.</t>
-  </si>
-  <si>
-    <t>Берсенева</t>
-  </si>
-  <si>
-    <t>ТОП-менеджер #1 (грибной суп-пюре, говядина су-вид, штрудель)</t>
-  </si>
-  <si>
-    <t>Большаков Владимир</t>
-  </si>
-  <si>
-    <t>Курица жареная на углях с овощами в лаваше</t>
-  </si>
-  <si>
-    <t>Суп-пюре грибной</t>
+    <t>мосина</t>
+  </si>
+  <si>
+    <t>Муллаяров</t>
+  </si>
+  <si>
+    <t>Неустроева Мария</t>
+  </si>
+  <si>
+    <t>Нефедова</t>
+  </si>
+  <si>
+    <t>Оля Тынкачева</t>
+  </si>
+  <si>
+    <t>Утренний (9:00)</t>
+  </si>
+  <si>
+    <t>Восстания</t>
+  </si>
+  <si>
+    <t>Остроумов Алексей</t>
+  </si>
+  <si>
+    <t>Раджабова</t>
+  </si>
+  <si>
+    <t>Суп-пюре шпинатный</t>
+  </si>
+  <si>
+    <t>Розочка с яблоками и вишней</t>
+  </si>
+  <si>
+    <t>Салтыков</t>
+  </si>
+  <si>
+    <t>Синявская Марина Васильевна</t>
+  </si>
+  <si>
+    <t>Соколова Владимира Валерьевна</t>
+  </si>
+  <si>
+    <t>Суфиева Лилия</t>
   </si>
   <si>
     <t>Кекс морковный</t>
   </si>
   <si>
-    <t>Борисова</t>
-  </si>
-  <si>
-    <t>Да</t>
-  </si>
-  <si>
-    <t>Гагарина</t>
-  </si>
-  <si>
-    <t>Боярских Надежда Николаевна</t>
-  </si>
-  <si>
-    <t>СУПЕРГЕРОЙ / ПРИНЦЕССА #1 (фрикадельки, картофельный дольки с сырным соусом, пирожок с творогом)</t>
-  </si>
-  <si>
-    <t>Вальдбауэр Даниил Андреевич</t>
-  </si>
-  <si>
-    <t>Бизнес-леди #2 (тыквенный суп-пюре, курица, круассан)</t>
-  </si>
-  <si>
-    <t>Водопьянова</t>
-  </si>
-  <si>
-    <t>Герасимов Ю.Н.</t>
-  </si>
-  <si>
-    <t>Глазырина</t>
-  </si>
-  <si>
-    <t>Глумнушина Полина</t>
-  </si>
-  <si>
-    <t>Головина</t>
-  </si>
-  <si>
-    <t>Горинская</t>
-  </si>
-  <si>
-    <t>Гуськов</t>
-  </si>
-  <si>
-    <t>Зеленин Артём Олегович</t>
-  </si>
-  <si>
-    <t>Изотова Анна</t>
-  </si>
-  <si>
-    <t>Пирожок с творогом и вишней</t>
-  </si>
-  <si>
-    <t>Илюшина</t>
-  </si>
-  <si>
-    <t>Жареные креветки с овощами в лаваше</t>
-  </si>
-  <si>
-    <t>Малыгина Варвара Сергеевна</t>
-  </si>
-  <si>
-    <t>Утренний (9:00)</t>
-  </si>
-  <si>
-    <t>Суп-пюре шпинатный</t>
-  </si>
-  <si>
-    <t>Восстания</t>
-  </si>
-  <si>
-    <t>Мецгер А.А.</t>
-  </si>
-  <si>
-    <t>мосина м а</t>
-  </si>
-  <si>
-    <t>Муллаяров Рафит Рифгатович</t>
-  </si>
-  <si>
-    <t>Неустроева Мария</t>
-  </si>
-  <si>
-    <t>Остроумов Алексей</t>
-  </si>
-  <si>
-    <t>Преображенская Екатерина Ивановна</t>
-  </si>
-  <si>
-    <t>Раджабова</t>
-  </si>
-  <si>
-    <t>Салтыков С</t>
-  </si>
-  <si>
-    <t>Синявская Марина Васильевна</t>
-  </si>
-  <si>
-    <t>Соколова Владимира Валерьевна</t>
-  </si>
-  <si>
-    <t>Суфиева Лилия</t>
-  </si>
-  <si>
-    <t>Тен Николай</t>
-  </si>
-  <si>
-    <t>Трошкова Наталья Сергеевна</t>
-  </si>
-  <si>
-    <t>Тынкачева Ольга</t>
-  </si>
-  <si>
-    <t>Тыртышняя Мария Сергеевна</t>
-  </si>
-  <si>
-    <t>Тюков Валерий Викторович</t>
+    <t>Трошкова Наталья</t>
   </si>
   <si>
     <t>Файзрахманова Л.В.</t>
   </si>
   <si>
-    <t>Фалеев СП</t>
-  </si>
-  <si>
-    <t>Люля-кебаб говядина свинина с овощами в лаваше</t>
-  </si>
-  <si>
     <t>Филиппов Пантелеимон Владимирович</t>
   </si>
   <si>
+    <t>Чулиев</t>
+  </si>
+  <si>
+    <t>Чуриков Александр Андреевич</t>
+  </si>
+  <si>
+    <t>Шустова Анастасия Сергеевна</t>
+  </si>
+  <si>
+    <t>29 Вторник</t>
+  </si>
+  <si>
+    <t>Дневные</t>
+  </si>
+  <si>
+    <t>Вечерние</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>Фалафель из фасоли с овощами в лаваше</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>Фалафель из нута с овощами в лаваше</t>
+  </si>
+  <si>
+    <t>Фалафель из гречи с овощами в лаваше</t>
+  </si>
+  <si>
     <t>Люля-кебаб говядина курица с овощами в лаваше</t>
   </si>
   <si>
-    <t>Чулиев</t>
-  </si>
-  <si>
-    <t>Шустова Анастасия Сергеевна</t>
-  </si>
-  <si>
-    <t>Пирожок с творогом</t>
-  </si>
-  <si>
-    <t>Вторник</t>
-  </si>
-  <si>
-    <t>Дневные</t>
-  </si>
-  <si>
-    <t>Вечерние</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>3</t>
+    <t>фрикадельки, картофельные дольки с сырным соусом</t>
+  </si>
+  <si>
+    <t>фрикадельки, картофельные дольки с грибным соусом</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>ТОП-менеджер #2 (грибной суп-пюре, свинина, штрудель)</t>
+  </si>
+  <si>
+    <t>ФРИЛАНСЕР #1 (грибной суп-пюре, курица, розочка)</t>
+  </si>
+  <si>
+    <t>ФРИЛАНСЕР #2 (грибной суп-пюре, кебаб (гов-свин), розочка)</t>
+  </si>
+  <si>
+    <t>ГЕЙМЕР #1 (грибной суп-пюре, кебаб (гов-свин), пирожок с творогом и вишней)</t>
+  </si>
+  <si>
+    <t>ГЕЙМЕР #2 (грибной суп-пюре, кебаб (гов-кур), пирожок с творогом и вишней)</t>
+  </si>
+  <si>
+    <t>Веган #1 (шпинатный суп-пюре, фалафель нут, морковный кекс)</t>
+  </si>
+  <si>
+    <t>Веган #2 (шпинатный суп-пюре, фалафель греча, морковный кекс)</t>
+  </si>
+  <si>
+    <t>Веган #3 (шпинатный суп-пюре, фалафель фасоль, морковный кекс)</t>
+  </si>
+  <si>
+    <t>Утро</t>
+  </si>
+  <si>
+    <t>День</t>
+  </si>
+  <si>
+    <t>Вечер</t>
+  </si>
+  <si>
+    <t>Итого</t>
+  </si>
+  <si>
+    <t>8</t>
   </si>
   <si>
     <t>9</t>
   </si>
   <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>Фалафель из фасоли с овощами в лаваше</t>
-  </si>
-  <si>
-    <t>Фалафель из нута с овощами в лаваше</t>
-  </si>
-  <si>
-    <t>Фалафель из гречи с овощами в лаваше</t>
-  </si>
-  <si>
-    <t>фрикадельки, картофельные дольки с сырным соусом</t>
-  </si>
-  <si>
-    <t>фрикадельки, картофельные дольки с грибным соусом</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>Розочка с яблоками и вишней</t>
-  </si>
-  <si>
-    <t>ТОП-менеджер #2 (грибной суп-пюре, свинина, штрудель)</t>
-  </si>
-  <si>
-    <t>ФРИЛАНСЕР #1 (грибной суп-пюре, курица, розочка)</t>
-  </si>
-  <si>
-    <t>ФРИЛАНСЕР #2 (грибной суп-пюре, кебаб (гов-свин), розочка)</t>
-  </si>
-  <si>
-    <t>ГЕЙМЕР #1 (грибной суп-пюре, кебаб (гов-свин), пирожок с творогом и вишней)</t>
-  </si>
-  <si>
-    <t>ГЕЙМЕР #2 (грибной суп-пюре, кебаб (гов-кур), пирожок с творогом и вишней)</t>
-  </si>
-  <si>
-    <t>Веган #1 (шпинатный суп-пюре, фалафель нут, морковный кекс)</t>
-  </si>
-  <si>
-    <t>Веган #2 (шпинатный суп-пюре, фалафель греча, морковный кекс)</t>
-  </si>
-  <si>
-    <t>Веган #3 (шпинатный суп-пюре, фалафель фасоль, морковный кекс)</t>
-  </si>
-  <si>
-    <t>СУПЕРГЕРОЙ / ПРИНЦЕССА #2 (фрикадельки, картофельный дольки с грибным соусом, пирожок с творогом)</t>
-  </si>
-  <si>
-    <t>Утро</t>
-  </si>
-  <si>
-    <t>День</t>
-  </si>
-  <si>
-    <t>Вечер</t>
-  </si>
-  <si>
-    <t>Итого</t>
+    <t>7</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>30 Среда</t>
   </si>
   <si>
     <t>10</t>
   </si>
   <si>
-    <t>14</t>
-  </si>
-  <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>7</t>
-  </si>
-  <si>
-    <t>8</t>
-  </si>
-  <si>
-    <t>15</t>
-  </si>
-  <si>
-    <t>Default</t>
-  </si>
-  <si>
-    <t>Среда</t>
+    <t>11</t>
+  </si>
+  <si>
+    <t>0 Четверг</t>
+  </si>
+  <si>
+    <t>1 Пятница</t>
   </si>
   <si>
     <t>13</t>
-  </si>
-  <si>
-    <t>Четверг</t>
-  </si>
-  <si>
-    <t>Пятница</t>
-  </si>
-  <si>
-    <t>11</t>
   </si>
 </sst>
 </file>
@@ -422,7 +395,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H42"/>
+  <dimension ref="A1:H36"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -468,172 +441,172 @@
         <v>11</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B3" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="C3" s="0" t="s">
+      <c r="E3" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" s="0" t="s">
         <v>17</v>
       </c>
-      <c r="D3" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="F3" s="0" t="s">
-        <v>10</v>
-      </c>
       <c r="G3" s="0" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="H3" s="0" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="G4" s="0" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="C4" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="E4" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="F4" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="G4" s="0" t="s">
-        <v>13</v>
-      </c>
       <c r="H4" s="0" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="0" t="s">
         <v>22</v>
       </c>
-      <c r="B5" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="C5" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" s="0" t="s">
-        <v>19</v>
-      </c>
       <c r="E5" s="0" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="H5" s="0" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="C6" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="E6" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="F6" s="0" t="s">
         <v>24</v>
       </c>
-      <c r="D6" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="E6" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="F6" s="0" t="s">
-        <v>10</v>
-      </c>
       <c r="G6" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H6" s="0" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B7" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>10</v>
+        <v>29</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H7" s="0" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B8" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="D8" s="0" t="s">
         <v>11</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F8" s="0" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G8" s="0" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="H8" s="0" t="s">
-        <v>31</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9">
@@ -644,126 +617,126 @@
         <v>9</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>33</v>
+        <v>10</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F9" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G9" s="0" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="H9" s="0" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F10" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G10" s="0" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="H10" s="0" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="C11" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="D11" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="E11" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="F11" s="0" t="s">
         <v>17</v>
       </c>
-      <c r="D11" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="E11" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="F11" s="0" t="s">
-        <v>10</v>
-      </c>
       <c r="G11" s="0" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="H11" s="0" t="s">
-        <v>31</v>
+        <v>13</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C12" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="D12" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="F12" s="0" t="s">
         <v>24</v>
       </c>
-      <c r="D12" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="E12" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="F12" s="0" t="s">
-        <v>10</v>
-      </c>
       <c r="G12" s="0" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="H12" s="0" t="s">
-        <v>31</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B13" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>24</v>
+        <v>38</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E13" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F13" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G13" s="0" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="H13" s="0" t="s">
-        <v>31</v>
+        <v>13</v>
       </c>
     </row>
     <row r="14">
@@ -771,25 +744,25 @@
         <v>39</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="C14" s="0" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="E14" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F14" s="0" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="G14" s="0" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="H14" s="0" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="15">
@@ -797,25 +770,25 @@
         <v>40</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E15" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F15" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G15" s="0" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="H15" s="0" t="s">
-        <v>31</v>
+        <v>13</v>
       </c>
     </row>
     <row r="16">
@@ -823,701 +796,545 @@
         <v>41</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="E16" s="0" t="s">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="F16" s="0" t="s">
-        <v>12</v>
+        <v>42</v>
       </c>
       <c r="G16" s="0" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="H16" s="0" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="D17" s="0" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="E17" s="0" t="s">
-        <v>10</v>
+        <v>44</v>
       </c>
       <c r="F17" s="0" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
       <c r="G17" s="0" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="H17" s="0" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="D18" s="0" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="E18" s="0" t="s">
-        <v>10</v>
+        <v>44</v>
       </c>
       <c r="F18" s="0" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="G18" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H18" s="0" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D19" s="0" t="s">
-        <v>19</v>
+        <v>48</v>
       </c>
       <c r="E19" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F19" s="0" t="s">
-        <v>45</v>
+        <v>24</v>
       </c>
       <c r="G19" s="0" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="H19" s="0" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D20" s="0" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="E20" s="0" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="F20" s="0" t="s">
-        <v>45</v>
+        <v>17</v>
       </c>
       <c r="G20" s="0" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="H20" s="0" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>49</v>
+        <v>15</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D21" s="0" t="s">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="E21" s="0" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="F21" s="0" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="G21" s="0" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="H21" s="0" t="s">
-        <v>51</v>
+        <v>27</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="C22" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D22" s="0" t="s">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="E22" s="0" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="F22" s="0" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="G22" s="0" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="H22" s="0" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="C23" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="D23" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="E23" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="F23" s="0" t="s">
         <v>17</v>
       </c>
-      <c r="D23" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="E23" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="F23" s="0" t="s">
-        <v>10</v>
-      </c>
       <c r="G23" s="0" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="H23" s="0" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="B24" s="0" t="s">
         <v>54</v>
       </c>
-      <c r="B24" s="0" t="s">
-        <v>16</v>
-      </c>
       <c r="C24" s="0" t="s">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="D24" s="0" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="E24" s="0" t="s">
-        <v>50</v>
+        <v>11</v>
       </c>
       <c r="F24" s="0" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G24" s="0" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="H24" s="0" t="s">
-        <v>14</v>
+        <v>55</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="C25" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D25" s="0" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="E25" s="0" t="s">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="F25" s="0" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="G25" s="0" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="H25" s="0" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="C26" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D26" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E26" s="0" t="s">
-        <v>10</v>
+        <v>58</v>
       </c>
       <c r="F26" s="0" t="s">
-        <v>12</v>
+        <v>59</v>
       </c>
       <c r="G26" s="0" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="H26" s="0" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="C27" s="0" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D27" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E27" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F27" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G27" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H27" s="0" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="C28" s="0" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="D28" s="0" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="E28" s="0" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="F28" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G28" s="0" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="H28" s="0" t="s">
-        <v>31</v>
+        <v>13</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="C29" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="D29" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="E29" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="F29" s="0" t="s">
         <v>24</v>
       </c>
-      <c r="D29" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="E29" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="F29" s="0" t="s">
-        <v>10</v>
-      </c>
       <c r="G29" s="0" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="H29" s="0" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="C30" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D30" s="0" t="s">
-        <v>19</v>
+        <v>48</v>
       </c>
       <c r="E30" s="0" t="s">
-        <v>50</v>
+        <v>23</v>
       </c>
       <c r="F30" s="0" t="s">
-        <v>10</v>
+        <v>64</v>
       </c>
       <c r="G30" s="0" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="H30" s="0" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="C31" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D31" s="0" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E31" s="0" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="F31" s="0" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="G31" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H31" s="0" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B32" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C32" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="D32" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="E32" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="F32" s="0" t="s">
         <v>24</v>
       </c>
-      <c r="D32" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="E32" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="F32" s="0" t="s">
-        <v>10</v>
-      </c>
       <c r="G32" s="0" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="H32" s="0" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="0" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B33" s="0" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="C33" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="D33" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="E33" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="F33" s="0" t="s">
         <v>17</v>
       </c>
-      <c r="D33" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="E33" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="F33" s="0" t="s">
-        <v>10</v>
-      </c>
       <c r="G33" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H33" s="0" t="s">
-        <v>31</v>
+        <v>13</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="0" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="B34" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C34" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D34" s="0" t="s">
-        <v>11</v>
+        <v>48</v>
       </c>
       <c r="E34" s="0" t="s">
-        <v>10</v>
+        <v>58</v>
       </c>
       <c r="F34" s="0" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="G34" s="0" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="H34" s="0" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="0" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B35" s="0" t="s">
-        <v>49</v>
+        <v>15</v>
       </c>
       <c r="C35" s="0" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="D35" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E35" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F35" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G35" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H35" s="0" t="s">
-        <v>51</v>
+        <v>13</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="0" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="B36" s="0" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="C36" s="0" t="s">
         <v>10</v>
       </c>
       <c r="D36" s="0" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="E36" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="F36" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="G36" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="H36" s="0" t="s">
         <v>27</v>
-      </c>
-      <c r="F36" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="G36" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="H36" s="0" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="0" t="s">
-        <v>67</v>
-      </c>
-      <c r="B37" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="C37" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="D37" s="0" t="s">
-        <v>47</v>
-      </c>
-      <c r="E37" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="F37" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="G37" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="H37" s="0" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="0" t="s">
-        <v>68</v>
-      </c>
-      <c r="B38" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="C38" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="D38" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="E38" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="F38" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="G38" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="H38" s="0" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="0" t="s">
-        <v>69</v>
-      </c>
-      <c r="B39" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="C39" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="D39" s="0" t="s">
-        <v>70</v>
-      </c>
-      <c r="E39" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="F39" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="G39" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="H39" s="0" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="0" t="s">
-        <v>71</v>
-      </c>
-      <c r="B40" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="C40" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="D40" s="0" t="s">
-        <v>72</v>
-      </c>
-      <c r="E40" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="F40" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="G40" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="H40" s="0" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="0" t="s">
-        <v>73</v>
-      </c>
-      <c r="B41" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="C41" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="D41" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="E41" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="F41" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="G41" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="H41" s="0" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" s="0" t="s">
-        <v>74</v>
-      </c>
-      <c r="B42" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="C42" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="D42" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="E42" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="F42" s="0" t="s">
-        <v>75</v>
-      </c>
-      <c r="G42" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="H42" s="0" t="s">
-        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -1527,7 +1344,7 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H42"/>
+  <dimension ref="A1:H36"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1567,178 +1384,178 @@
         <v>9</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>72</v>
+        <v>11</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C3" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="E3" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" s="0" t="s">
         <v>17</v>
       </c>
-      <c r="D3" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="F3" s="0" t="s">
-        <v>10</v>
-      </c>
       <c r="G3" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H3" s="0" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="F4" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="G4" s="0" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="C4" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" s="0" t="s">
-        <v>26</v>
-      </c>
-      <c r="E4" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="F4" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="G4" s="0" t="s">
-        <v>13</v>
-      </c>
       <c r="H4" s="0" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="H5" s="0" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="E6" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="F6" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="G6" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="H6" s="0" t="s">
         <v>27</v>
-      </c>
-      <c r="F6" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="G6" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="H6" s="0" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B7" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>10</v>
+        <v>38</v>
       </c>
       <c r="D7" s="0" t="s">
         <v>11</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H7" s="0" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B8" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="D8" s="0" t="s">
         <v>11</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F8" s="0" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G8" s="0" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="H8" s="0" t="s">
-        <v>31</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9">
@@ -1749,126 +1566,126 @@
         <v>9</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F9" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G9" s="0" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="H9" s="0" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>35</v>
+        <v>90</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F10" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G10" s="0" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="H10" s="0" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>96</v>
+        <v>11</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>10</v>
+        <v>35</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F11" s="0" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="G11" s="0" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="H11" s="0" t="s">
-        <v>31</v>
+        <v>13</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F12" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G12" s="0" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="H12" s="0" t="s">
-        <v>31</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B13" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>97</v>
+        <v>29</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E13" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F13" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G13" s="0" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="H13" s="0" t="s">
-        <v>31</v>
+        <v>13</v>
       </c>
     </row>
     <row r="14">
@@ -1876,7 +1693,7 @@
         <v>39</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="C14" s="0" t="s">
         <v>10</v>
@@ -1885,16 +1702,16 @@
         <v>11</v>
       </c>
       <c r="E14" s="0" t="s">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="F14" s="0" t="s">
-        <v>45</v>
+        <v>11</v>
       </c>
       <c r="G14" s="0" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="H14" s="0" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="15">
@@ -1902,25 +1719,25 @@
         <v>40</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>94</v>
+        <v>10</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E15" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F15" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G15" s="0" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="H15" s="0" t="s">
-        <v>31</v>
+        <v>13</v>
       </c>
     </row>
     <row r="16">
@@ -1928,701 +1745,545 @@
         <v>41</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E16" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F16" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G16" s="0" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="H16" s="0" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="B17" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="C17" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="D17" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="E17" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="F17" s="0" t="s">
         <v>42</v>
       </c>
-      <c r="B17" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="C17" s="0" t="s">
-        <v>101</v>
-      </c>
-      <c r="D17" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="E17" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="F17" s="0" t="s">
-        <v>10</v>
-      </c>
       <c r="G17" s="0" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="H17" s="0" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D18" s="0" t="s">
-        <v>47</v>
+        <v>26</v>
       </c>
       <c r="E18" s="0" t="s">
-        <v>10</v>
+        <v>44</v>
       </c>
       <c r="F18" s="0" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="G18" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H18" s="0" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>33</v>
+        <v>11</v>
       </c>
       <c r="D19" s="0" t="s">
-        <v>10</v>
+        <v>48</v>
       </c>
       <c r="E19" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F19" s="0" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="G19" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H19" s="0" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D20" s="0" t="s">
-        <v>26</v>
+        <v>80</v>
       </c>
       <c r="E20" s="0" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F20" s="0" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="G20" s="0" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="H20" s="0" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>49</v>
+        <v>15</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D21" s="0" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="E21" s="0" t="s">
-        <v>10</v>
+        <v>44</v>
       </c>
       <c r="F21" s="0" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="G21" s="0" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="H21" s="0" t="s">
-        <v>51</v>
+        <v>27</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="C22" s="0" t="s">
-        <v>10</v>
+        <v>38</v>
       </c>
       <c r="D22" s="0" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="E22" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F22" s="0" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G22" s="0" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="H22" s="0" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="C23" s="0" t="s">
-        <v>35</v>
+        <v>11</v>
       </c>
       <c r="D23" s="0" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="E23" s="0" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="F23" s="0" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="G23" s="0" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="H23" s="0" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="B24" s="0" t="s">
         <v>54</v>
       </c>
-      <c r="B24" s="0" t="s">
-        <v>16</v>
-      </c>
       <c r="C24" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D24" s="0" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E24" s="0" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F24" s="0" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="G24" s="0" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="H24" s="0" t="s">
-        <v>14</v>
+        <v>55</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="C25" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D25" s="0" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="E25" s="0" t="s">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="F25" s="0" t="s">
-        <v>45</v>
+        <v>24</v>
       </c>
       <c r="G25" s="0" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="H25" s="0" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="C26" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D26" s="0" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="E26" s="0" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="F26" s="0" t="s">
-        <v>12</v>
+        <v>42</v>
       </c>
       <c r="G26" s="0" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="H26" s="0" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="C27" s="0" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="D27" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E27" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F27" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G27" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H27" s="0" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="C28" s="0" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="D28" s="0" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="E28" s="0" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="F28" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G28" s="0" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="H28" s="0" t="s">
-        <v>31</v>
+        <v>13</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="C29" s="0" t="s">
-        <v>35</v>
+        <v>11</v>
       </c>
       <c r="D29" s="0" t="s">
-        <v>10</v>
+        <v>48</v>
       </c>
       <c r="E29" s="0" t="s">
-        <v>10</v>
+        <v>44</v>
       </c>
       <c r="F29" s="0" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G29" s="0" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="H29" s="0" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C30" s="0" t="s">
-        <v>10</v>
+        <v>29</v>
       </c>
       <c r="D30" s="0" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="E30" s="0" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="F30" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G30" s="0" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="H30" s="0" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="C31" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D31" s="0" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="E31" s="0" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="F31" s="0" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G31" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H31" s="0" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B32" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="C32" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="D32" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="C32" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="D32" s="0" t="s">
-        <v>10</v>
-      </c>
       <c r="E32" s="0" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="F32" s="0" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="G32" s="0" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="H32" s="0" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="0" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B33" s="0" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="C33" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="D33" s="0" t="s">
         <v>35</v>
       </c>
-      <c r="D33" s="0" t="s">
-        <v>10</v>
-      </c>
       <c r="E33" s="0" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="F33" s="0" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G33" s="0" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="H33" s="0" t="s">
-        <v>31</v>
+        <v>13</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="0" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="B34" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C34" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D34" s="0" t="s">
-        <v>11</v>
+        <v>82</v>
       </c>
       <c r="E34" s="0" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="F34" s="0" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="G34" s="0" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="H34" s="0" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="0" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B35" s="0" t="s">
-        <v>49</v>
+        <v>15</v>
       </c>
       <c r="C35" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D35" s="0" t="s">
-        <v>26</v>
+        <v>82</v>
       </c>
       <c r="E35" s="0" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="F35" s="0" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G35" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H35" s="0" t="s">
-        <v>51</v>
+        <v>13</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="0" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="B36" s="0" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C36" s="0" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="D36" s="0" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="E36" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="F36" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="G36" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="H36" s="0" t="s">
         <v>27</v>
-      </c>
-      <c r="F36" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="G36" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="H36" s="0" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="0" t="s">
-        <v>67</v>
-      </c>
-      <c r="B37" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="C37" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="D37" s="0" t="s">
-        <v>47</v>
-      </c>
-      <c r="E37" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="F37" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="G37" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="H37" s="0" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="0" t="s">
-        <v>68</v>
-      </c>
-      <c r="B38" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="C38" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="D38" s="0" t="s">
-        <v>47</v>
-      </c>
-      <c r="E38" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="F38" s="0" t="s">
-        <v>92</v>
-      </c>
-      <c r="G38" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="H38" s="0" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="0" t="s">
-        <v>69</v>
-      </c>
-      <c r="B39" s="0" t="s">
-        <v>112</v>
-      </c>
-      <c r="C39" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="D39" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="E39" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="F39" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="G39" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="H39" s="0" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="0" t="s">
-        <v>71</v>
-      </c>
-      <c r="B40" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="C40" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="D40" s="0" t="s">
-        <v>72</v>
-      </c>
-      <c r="E40" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="F40" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="G40" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="H40" s="0" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="0" t="s">
-        <v>73</v>
-      </c>
-      <c r="B41" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="C41" s="0" t="s">
-        <v>94</v>
-      </c>
-      <c r="D41" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="E41" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="F41" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="G41" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="H41" s="0" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" s="0" t="s">
-        <v>74</v>
-      </c>
-      <c r="B42" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="C42" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="D42" s="0" t="s">
-        <v>47</v>
-      </c>
-      <c r="E42" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="F42" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="G42" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="H42" s="0" t="s">
-        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -2640,32 +2301,32 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>19</v>
+        <v>48</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="C3" s="0" t="s">
         <v>79</v>
@@ -2673,10 +2334,10 @@
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>90</v>
+        <v>77</v>
       </c>
       <c r="C4" s="0" t="s">
         <v>79</v>
@@ -2684,18 +2345,18 @@
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="B6" s="0" t="s">
         <v>79</v>
@@ -2706,18 +2367,18 @@
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="B7" s="0" t="s">
         <v>79</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="B8" s="0" t="s">
         <v>79</v>
@@ -2728,21 +2389,21 @@
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>72</v>
+        <v>82</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>70</v>
+        <v>16</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="C10" s="0" t="s">
         <v>79</v>
@@ -2750,7 +2411,7 @@
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B11" s="0" t="s">
         <v>79</v>
@@ -2761,7 +2422,7 @@
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="B12" s="0" t="s">
         <v>79</v>
@@ -2772,7 +2433,7 @@
     </row>
     <row r="13">
       <c r="A13" s="0" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="B13" s="0" t="s">
         <v>79</v>
@@ -2783,21 +2444,21 @@
     </row>
     <row r="14">
       <c r="A14" s="0" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0" t="s">
-        <v>20</v>
+        <v>44</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>91</v>
+        <v>77</v>
       </c>
       <c r="C15" s="0" t="s">
         <v>79</v>
@@ -2805,40 +2466,40 @@
     </row>
     <row r="16">
       <c r="A16" s="0" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0" t="s">
-        <v>28</v>
+        <v>64</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0" t="s">
-        <v>75</v>
+        <v>45</v>
       </c>
       <c r="B19" s="0" t="s">
         <v>79</v>
@@ -2849,21 +2510,21 @@
     </row>
     <row r="20">
       <c r="A20" s="0" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0" t="s">
-        <v>92</v>
+        <v>59</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C21" s="0" t="s">
         <v>79</v>
@@ -2871,18 +2532,18 @@
     </row>
     <row r="22">
       <c r="A22" s="0" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="C22" s="0" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="B23" s="0" t="s">
         <v>79</v>
@@ -2893,7 +2554,7 @@
     </row>
     <row r="24">
       <c r="A24" s="0" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="B24" s="0" t="s">
         <v>79</v>
@@ -2904,29 +2565,29 @@
     </row>
     <row r="25">
       <c r="A25" s="0" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C25" s="0" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="B26" s="0" t="s">
         <v>79</v>
       </c>
       <c r="C26" s="0" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="B27" s="0" t="s">
         <v>79</v>
@@ -2937,29 +2598,29 @@
     </row>
     <row r="28">
       <c r="A28" s="0" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="C28" s="0" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="B29" s="0" t="s">
         <v>79</v>
       </c>
       <c r="C29" s="0" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="B30" s="0" t="s">
         <v>79</v>
@@ -2970,7 +2631,7 @@
     </row>
     <row r="31">
       <c r="A31" s="0" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="B31" s="0" t="s">
         <v>79</v>
@@ -2981,7 +2642,7 @@
     </row>
     <row r="32">
       <c r="A32" s="0" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="B32" s="0" t="s">
         <v>79</v>
@@ -2992,7 +2653,7 @@
     </row>
     <row r="33">
       <c r="A33" s="0" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B33" s="0" t="s">
         <v>79</v>
@@ -3003,7 +2664,7 @@
     </row>
     <row r="34">
       <c r="A34" s="0" t="s">
-        <v>101</v>
+        <v>38</v>
       </c>
       <c r="B34" s="0" t="s">
         <v>79</v>
@@ -3027,92 +2688,92 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>19</v>
+        <v>48</v>
       </c>
       <c r="B3" s="0" t="s">
         <v>79</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>90</v>
+        <v>76</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>106</v>
+        <v>86</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="B5" s="0" t="s">
         <v>79</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="B6" s="0" t="s">
         <v>79</v>
@@ -3129,7 +2790,7 @@
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="B7" s="0" t="s">
         <v>79</v>
@@ -3138,15 +2799,15 @@
         <v>79</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="B8" s="0" t="s">
         <v>79</v>
@@ -3163,41 +2824,41 @@
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>72</v>
+        <v>82</v>
       </c>
       <c r="B9" s="0" t="s">
         <v>79</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>70</v>
+        <v>16</v>
       </c>
       <c r="B10" s="0" t="s">
         <v>79</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B11" s="0" t="s">
         <v>79</v>
@@ -3214,7 +2875,7 @@
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="B12" s="0" t="s">
         <v>79</v>
@@ -3231,7 +2892,7 @@
     </row>
     <row r="13">
       <c r="A13" s="0" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="B13" s="0" t="s">
         <v>79</v>
@@ -3248,92 +2909,92 @@
     </row>
     <row r="14">
       <c r="A14" s="0" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>110</v>
+        <v>77</v>
       </c>
       <c r="E14" s="0" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0" t="s">
-        <v>20</v>
+        <v>44</v>
       </c>
       <c r="B15" s="0" t="s">
         <v>79</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="E15" s="0" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="B16" s="0" t="s">
         <v>79</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>89</v>
+        <v>101</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="E16" s="0" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0" t="s">
-        <v>28</v>
+        <v>64</v>
       </c>
       <c r="B17" s="0" t="s">
         <v>79</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="D17" s="0" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="E17" s="0" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>110</v>
+        <v>85</v>
       </c>
       <c r="D18" s="0" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="E18" s="0" t="s">
-        <v>117</v>
+        <v>105</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0" t="s">
-        <v>75</v>
+        <v>45</v>
       </c>
       <c r="B19" s="0" t="s">
         <v>79</v>
@@ -3350,36 +3011,36 @@
     </row>
     <row r="20">
       <c r="A20" s="0" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B20" s="0" t="s">
         <v>79</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="D20" s="0" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="E20" s="0" t="s">
-        <v>91</v>
+        <v>76</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0" t="s">
-        <v>92</v>
+        <v>59</v>
       </c>
       <c r="B21" s="0" t="s">
         <v>79</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="D21" s="0" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="E21" s="0" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
   </sheetData>
@@ -3397,62 +3058,62 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>19</v>
+        <v>48</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="B6" s="0" t="s">
         <v>79</v>
@@ -3463,7 +3124,7 @@
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="B7" s="0" t="s">
         <v>79</v>
@@ -3474,7 +3135,7 @@
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="B8" s="0" t="s">
         <v>79</v>
@@ -3485,10 +3146,10 @@
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>72</v>
+        <v>82</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C9" s="0" t="s">
         <v>79</v>
@@ -3496,18 +3157,18 @@
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>70</v>
+        <v>16</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B11" s="0" t="s">
         <v>79</v>
@@ -3518,7 +3179,7 @@
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="B12" s="0" t="s">
         <v>79</v>
@@ -3529,32 +3190,32 @@
     </row>
     <row r="13">
       <c r="A13" s="0" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0" t="s">
-        <v>20</v>
+        <v>44</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C15" s="0" t="s">
         <v>79</v>
@@ -3562,43 +3223,43 @@
     </row>
     <row r="16">
       <c r="A16" s="0" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0" t="s">
-        <v>28</v>
+        <v>64</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0" t="s">
-        <v>75</v>
+        <v>45</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="C19" s="0" t="s">
         <v>79</v>
@@ -3606,10 +3267,10 @@
     </row>
     <row r="20">
       <c r="A20" s="0" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="C20" s="0" t="s">
         <v>79</v>
@@ -3617,29 +3278,29 @@
     </row>
     <row r="21">
       <c r="A21" s="0" t="s">
-        <v>92</v>
+        <v>59</v>
       </c>
       <c r="B21" s="0" t="s">
         <v>79</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="C22" s="0" t="s">
-        <v>91</v>
+        <v>79</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="B23" s="0" t="s">
         <v>79</v>
@@ -3650,21 +3311,21 @@
     </row>
     <row r="24">
       <c r="A24" s="0" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="B24" s="0" t="s">
         <v>79</v>
       </c>
       <c r="C24" s="0" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="C25" s="0" t="s">
         <v>79</v>
@@ -3672,7 +3333,7 @@
     </row>
     <row r="26">
       <c r="A26" s="0" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="B26" s="0" t="s">
         <v>79</v>
@@ -3683,7 +3344,7 @@
     </row>
     <row r="27">
       <c r="A27" s="0" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="B27" s="0" t="s">
         <v>79</v>
@@ -3694,7 +3355,7 @@
     </row>
     <row r="28">
       <c r="A28" s="0" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="B28" s="0" t="s">
         <v>79</v>
@@ -3705,7 +3366,7 @@
     </row>
     <row r="29">
       <c r="A29" s="0" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="B29" s="0" t="s">
         <v>79</v>
@@ -3716,7 +3377,7 @@
     </row>
     <row r="30">
       <c r="A30" s="0" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="B30" s="0" t="s">
         <v>79</v>
@@ -3727,7 +3388,7 @@
     </row>
     <row r="31">
       <c r="A31" s="0" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="B31" s="0" t="s">
         <v>79</v>
@@ -3738,7 +3399,7 @@
     </row>
     <row r="32">
       <c r="A32" s="0" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="B32" s="0" t="s">
         <v>79</v>
@@ -3749,7 +3410,7 @@
     </row>
     <row r="33">
       <c r="A33" s="0" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B33" s="0" t="s">
         <v>79</v>
@@ -3760,7 +3421,7 @@
     </row>
     <row r="34">
       <c r="A34" s="0" t="s">
-        <v>101</v>
+        <v>38</v>
       </c>
       <c r="B34" s="0" t="s">
         <v>79</v>
@@ -3784,92 +3445,92 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="B2" s="0" t="s">
         <v>79</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>19</v>
+        <v>48</v>
       </c>
       <c r="B3" s="0" t="s">
         <v>79</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>106</v>
+        <v>76</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>91</v>
+        <v>76</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>107</v>
+        <v>85</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="B5" s="0" t="s">
         <v>79</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>90</v>
+        <v>99</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="B6" s="0" t="s">
         <v>79</v>
@@ -3886,7 +3547,7 @@
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="B7" s="0" t="s">
         <v>79</v>
@@ -3903,7 +3564,7 @@
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="B8" s="0" t="s">
         <v>79</v>
@@ -3920,41 +3581,41 @@
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>72</v>
+        <v>82</v>
       </c>
       <c r="B9" s="0" t="s">
         <v>79</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="D9" s="0" t="s">
         <v>79</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>70</v>
+        <v>16</v>
       </c>
       <c r="B10" s="0" t="s">
         <v>79</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B11" s="0" t="s">
         <v>79</v>
@@ -3971,7 +3632,7 @@
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="B12" s="0" t="s">
         <v>79</v>
@@ -3988,143 +3649,143 @@
     </row>
     <row r="13">
       <c r="A13" s="0" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="E13" s="0" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="B14" s="0" t="s">
         <v>79</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>90</v>
+        <v>77</v>
       </c>
       <c r="E14" s="0" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0" t="s">
-        <v>20</v>
+        <v>44</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="E15" s="0" t="s">
-        <v>90</v>
+        <v>101</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="B16" s="0" t="s">
         <v>79</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>110</v>
+        <v>86</v>
       </c>
       <c r="E16" s="0" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0" t="s">
-        <v>28</v>
+        <v>64</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C17" s="0" t="s">
         <v>79</v>
       </c>
       <c r="D17" s="0" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="E17" s="0" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="D18" s="0" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="E18" s="0" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0" t="s">
-        <v>75</v>
+        <v>45</v>
       </c>
       <c r="B19" s="0" t="s">
         <v>79</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="D19" s="0" t="s">
         <v>79</v>
       </c>
       <c r="E19" s="0" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B20" s="0" t="s">
         <v>79</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="D20" s="0" t="s">
         <v>79</v>
       </c>
       <c r="E20" s="0" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0" t="s">
-        <v>92</v>
+        <v>59</v>
       </c>
       <c r="B21" s="0" t="s">
         <v>79</v>
@@ -4133,10 +3794,10 @@
         <v>79</v>
       </c>
       <c r="D21" s="0" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="E21" s="0" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
     </row>
   </sheetData>
@@ -4146,7 +3807,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H42"/>
+  <dimension ref="A1:H36"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4186,178 +3847,178 @@
         <v>9</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C3" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>82</v>
+      </c>
+      <c r="E3" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" s="0" t="s">
         <v>17</v>
       </c>
-      <c r="D3" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="F3" s="0" t="s">
-        <v>10</v>
-      </c>
       <c r="G3" s="0" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="H3" s="0" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="G4" s="0" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="C4" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" s="0" t="s">
-        <v>47</v>
-      </c>
-      <c r="E4" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="F4" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="G4" s="0" t="s">
-        <v>13</v>
-      </c>
       <c r="H4" s="0" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D5" s="0" t="s">
         <v>26</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="H5" s="0" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>50</v>
+        <v>11</v>
       </c>
       <c r="F6" s="0" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H6" s="0" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B7" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>10</v>
+        <v>38</v>
       </c>
       <c r="D7" s="0" t="s">
         <v>11</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H7" s="0" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B8" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F8" s="0" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="G8" s="0" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="H8" s="0" t="s">
-        <v>31</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9">
@@ -4368,126 +4029,126 @@
         <v>9</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>101</v>
+        <v>20</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F9" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G9" s="0" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="H9" s="0" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>35</v>
+        <v>87</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F10" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G10" s="0" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="H10" s="0" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>35</v>
+        <v>11</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>10</v>
+        <v>44</v>
       </c>
       <c r="F11" s="0" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="G11" s="0" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="H11" s="0" t="s">
-        <v>31</v>
+        <v>13</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>93</v>
+        <v>11</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>10</v>
+        <v>48</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>10</v>
+        <v>44</v>
       </c>
       <c r="F12" s="0" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G12" s="0" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="H12" s="0" t="s">
-        <v>31</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B13" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E13" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F13" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G13" s="0" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="H13" s="0" t="s">
-        <v>31</v>
+        <v>13</v>
       </c>
     </row>
     <row r="14">
@@ -4495,25 +4156,25 @@
         <v>39</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="C14" s="0" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>47</v>
+        <v>11</v>
       </c>
       <c r="E14" s="0" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="F14" s="0" t="s">
-        <v>92</v>
+        <v>11</v>
       </c>
       <c r="G14" s="0" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="H14" s="0" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="15">
@@ -4521,25 +4182,25 @@
         <v>40</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E15" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F15" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G15" s="0" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="H15" s="0" t="s">
-        <v>31</v>
+        <v>13</v>
       </c>
     </row>
     <row r="16">
@@ -4547,701 +4208,545 @@
         <v>41</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>10</v>
+        <v>29</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="E16" s="0" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="F16" s="0" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="G16" s="0" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="H16" s="0" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>35</v>
+        <v>11</v>
       </c>
       <c r="D17" s="0" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="E17" s="0" t="s">
-        <v>10</v>
+        <v>44</v>
       </c>
       <c r="F17" s="0" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
       <c r="G17" s="0" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="H17" s="0" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="D18" s="0" t="s">
-        <v>47</v>
+        <v>11</v>
       </c>
       <c r="E18" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F18" s="0" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="G18" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H18" s="0" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>101</v>
+        <v>11</v>
       </c>
       <c r="D19" s="0" t="s">
-        <v>10</v>
+        <v>48</v>
       </c>
       <c r="E19" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F19" s="0" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="G19" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H19" s="0" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D20" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E20" s="0" t="s">
-        <v>20</v>
+        <v>44</v>
       </c>
       <c r="F20" s="0" t="s">
-        <v>45</v>
+        <v>17</v>
       </c>
       <c r="G20" s="0" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="H20" s="0" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="B21" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="C21" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="D21" s="0" t="s">
         <v>48</v>
       </c>
-      <c r="B21" s="0" t="s">
-        <v>49</v>
-      </c>
-      <c r="C21" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="D21" s="0" t="s">
-        <v>47</v>
-      </c>
       <c r="E21" s="0" t="s">
-        <v>10</v>
+        <v>58</v>
       </c>
       <c r="F21" s="0" t="s">
-        <v>10</v>
+        <v>64</v>
       </c>
       <c r="G21" s="0" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="H21" s="0" t="s">
-        <v>51</v>
+        <v>27</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="C22" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D22" s="0" t="s">
-        <v>19</v>
+        <v>82</v>
       </c>
       <c r="E22" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F22" s="0" t="s">
-        <v>12</v>
+        <v>45</v>
       </c>
       <c r="G22" s="0" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="H22" s="0" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="C23" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D23" s="0" t="s">
-        <v>85</v>
+        <v>35</v>
       </c>
       <c r="E23" s="0" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="F23" s="0" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G23" s="0" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="H23" s="0" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="B24" s="0" t="s">
         <v>54</v>
       </c>
-      <c r="B24" s="0" t="s">
-        <v>16</v>
-      </c>
       <c r="C24" s="0" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="D24" s="0" t="s">
-        <v>10</v>
+        <v>82</v>
       </c>
       <c r="E24" s="0" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="F24" s="0" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="G24" s="0" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="H24" s="0" t="s">
-        <v>14</v>
+        <v>55</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="C25" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D25" s="0" t="s">
-        <v>70</v>
+        <v>48</v>
       </c>
       <c r="E25" s="0" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="F25" s="0" t="s">
-        <v>75</v>
+        <v>24</v>
       </c>
       <c r="G25" s="0" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="H25" s="0" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="C26" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D26" s="0" t="s">
-        <v>19</v>
+        <v>82</v>
       </c>
       <c r="E26" s="0" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="F26" s="0" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="G26" s="0" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="H26" s="0" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="C27" s="0" t="s">
-        <v>17</v>
+        <v>87</v>
       </c>
       <c r="D27" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E27" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F27" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G27" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H27" s="0" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="C28" s="0" t="s">
-        <v>35</v>
+        <v>11</v>
       </c>
       <c r="D28" s="0" t="s">
-        <v>10</v>
+        <v>48</v>
       </c>
       <c r="E28" s="0" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="F28" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G28" s="0" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="H28" s="0" t="s">
-        <v>31</v>
+        <v>13</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="C29" s="0" t="s">
-        <v>93</v>
+        <v>11</v>
       </c>
       <c r="D29" s="0" t="s">
-        <v>10</v>
+        <v>48</v>
       </c>
       <c r="E29" s="0" t="s">
-        <v>10</v>
+        <v>44</v>
       </c>
       <c r="F29" s="0" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G29" s="0" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="H29" s="0" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="C30" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D30" s="0" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E30" s="0" t="s">
-        <v>27</v>
+        <v>44</v>
       </c>
       <c r="F30" s="0" t="s">
-        <v>10</v>
+        <v>59</v>
       </c>
       <c r="G30" s="0" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="H30" s="0" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="C31" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D31" s="0" t="s">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="E31" s="0" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="F31" s="0" t="s">
-        <v>28</v>
+        <v>64</v>
       </c>
       <c r="G31" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H31" s="0" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B32" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C32" s="0" t="s">
-        <v>35</v>
+        <v>87</v>
       </c>
       <c r="D32" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E32" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F32" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G32" s="0" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="H32" s="0" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="0" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B33" s="0" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="C33" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="D33" s="0" t="s">
         <v>35</v>
       </c>
-      <c r="D33" s="0" t="s">
-        <v>10</v>
-      </c>
       <c r="E33" s="0" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="F33" s="0" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G33" s="0" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="H33" s="0" t="s">
-        <v>31</v>
+        <v>13</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="0" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="B34" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C34" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D34" s="0" t="s">
-        <v>70</v>
+        <v>22</v>
       </c>
       <c r="E34" s="0" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="F34" s="0" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="G34" s="0" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="H34" s="0" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="0" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B35" s="0" t="s">
-        <v>49</v>
+        <v>15</v>
       </c>
       <c r="C35" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D35" s="0" t="s">
-        <v>72</v>
+        <v>48</v>
       </c>
       <c r="E35" s="0" t="s">
-        <v>27</v>
+        <v>44</v>
       </c>
       <c r="F35" s="0" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="G35" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H35" s="0" t="s">
-        <v>51</v>
+        <v>13</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="0" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="B36" s="0" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C36" s="0" t="s">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="D36" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E36" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F36" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G36" s="0" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="H36" s="0" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="0" t="s">
-        <v>67</v>
-      </c>
-      <c r="B37" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="C37" s="0" t="s">
-        <v>35</v>
-      </c>
-      <c r="D37" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="E37" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="F37" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="G37" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="H37" s="0" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="0" t="s">
-        <v>68</v>
-      </c>
-      <c r="B38" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="C38" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="D38" s="0" t="s">
-        <v>72</v>
-      </c>
-      <c r="E38" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="F38" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="G38" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="H38" s="0" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="0" t="s">
-        <v>69</v>
-      </c>
-      <c r="B39" s="0" t="s">
-        <v>112</v>
-      </c>
-      <c r="C39" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="D39" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="E39" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="F39" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="G39" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="H39" s="0" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="0" t="s">
-        <v>71</v>
-      </c>
-      <c r="B40" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="C40" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="D40" s="0" t="s">
-        <v>72</v>
-      </c>
-      <c r="E40" s="0" t="s">
         <v>27</v>
-      </c>
-      <c r="F40" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="G40" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="H40" s="0" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="0" t="s">
-        <v>73</v>
-      </c>
-      <c r="B41" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="C41" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="D41" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="E41" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="F41" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="G41" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="H41" s="0" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" s="0" t="s">
-        <v>74</v>
-      </c>
-      <c r="B42" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="C42" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="D42" s="0" t="s">
-        <v>47</v>
-      </c>
-      <c r="E42" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="F42" s="0" t="s">
-        <v>92</v>
-      </c>
-      <c r="G42" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="H42" s="0" t="s">
-        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -5259,62 +4764,62 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>113</v>
+        <v>103</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="B2" s="0" t="s">
         <v>79</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>19</v>
+        <v>48</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>91</v>
+        <v>101</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>90</v>
+        <v>75</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="B6" s="0" t="s">
         <v>79</v>
@@ -5325,18 +4830,18 @@
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="B7" s="0" t="s">
         <v>79</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="B8" s="0" t="s">
         <v>79</v>
@@ -5347,29 +4852,29 @@
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>72</v>
+        <v>82</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>70</v>
+        <v>16</v>
       </c>
       <c r="B10" s="0" t="s">
         <v>79</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B11" s="0" t="s">
         <v>79</v>
@@ -5380,7 +4885,7 @@
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="B12" s="0" t="s">
         <v>79</v>
@@ -5391,10 +4896,10 @@
     </row>
     <row r="13">
       <c r="A13" s="0" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="C13" s="0" t="s">
         <v>79</v>
@@ -5402,76 +4907,76 @@
     </row>
     <row r="14">
       <c r="A14" s="0" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>91</v>
+        <v>77</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0" t="s">
-        <v>20</v>
+        <v>44</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0" t="s">
-        <v>28</v>
+        <v>64</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0" t="s">
-        <v>75</v>
+        <v>45</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C20" s="0" t="s">
         <v>79</v>
@@ -5479,32 +4984,32 @@
     </row>
     <row r="21">
       <c r="A21" s="0" t="s">
-        <v>92</v>
+        <v>59</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="C22" s="0" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="C23" s="0" t="s">
         <v>79</v>
@@ -5512,29 +5017,29 @@
     </row>
     <row r="24">
       <c r="A24" s="0" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="B24" s="0" t="s">
         <v>79</v>
       </c>
       <c r="C24" s="0" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="B25" s="0" t="s">
         <v>79</v>
       </c>
       <c r="C25" s="0" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="B26" s="0" t="s">
         <v>79</v>
@@ -5545,7 +5050,7 @@
     </row>
     <row r="27">
       <c r="A27" s="0" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="B27" s="0" t="s">
         <v>79</v>
@@ -5556,7 +5061,7 @@
     </row>
     <row r="28">
       <c r="A28" s="0" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="B28" s="0" t="s">
         <v>79</v>
@@ -5567,7 +5072,7 @@
     </row>
     <row r="29">
       <c r="A29" s="0" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="B29" s="0" t="s">
         <v>79</v>
@@ -5578,7 +5083,7 @@
     </row>
     <row r="30">
       <c r="A30" s="0" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="B30" s="0" t="s">
         <v>79</v>
@@ -5589,7 +5094,7 @@
     </row>
     <row r="31">
       <c r="A31" s="0" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="B31" s="0" t="s">
         <v>79</v>
@@ -5600,7 +5105,7 @@
     </row>
     <row r="32">
       <c r="A32" s="0" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="B32" s="0" t="s">
         <v>79</v>
@@ -5611,7 +5116,7 @@
     </row>
     <row r="33">
       <c r="A33" s="0" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B33" s="0" t="s">
         <v>79</v>
@@ -5622,7 +5127,7 @@
     </row>
     <row r="34">
       <c r="A34" s="0" t="s">
-        <v>101</v>
+        <v>38</v>
       </c>
       <c r="B34" s="0" t="s">
         <v>79</v>
@@ -5646,92 +5151,92 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>113</v>
+        <v>103</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="B2" s="0" t="s">
         <v>79</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>19</v>
+        <v>48</v>
       </c>
       <c r="B3" s="0" t="s">
         <v>79</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>91</v>
+        <v>104</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B4" s="0" t="s">
         <v>79</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>109</v>
+        <v>86</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>89</v>
+        <v>75</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="B6" s="0" t="s">
         <v>79</v>
@@ -5748,7 +5253,7 @@
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="B7" s="0" t="s">
         <v>79</v>
@@ -5757,15 +5262,15 @@
         <v>79</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="B8" s="0" t="s">
         <v>79</v>
@@ -5782,24 +5287,24 @@
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>72</v>
+        <v>82</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>70</v>
+        <v>16</v>
       </c>
       <c r="B10" s="0" t="s">
         <v>79</v>
@@ -5808,15 +5313,15 @@
         <v>79</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B11" s="0" t="s">
         <v>79</v>
@@ -5833,7 +5338,7 @@
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="B12" s="0" t="s">
         <v>79</v>
@@ -5850,155 +5355,155 @@
     </row>
     <row r="13">
       <c r="A13" s="0" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="B13" s="0" t="s">
         <v>79</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="D13" s="0" t="s">
         <v>79</v>
       </c>
       <c r="E13" s="0" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="E14" s="0" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0" t="s">
-        <v>20</v>
+        <v>44</v>
       </c>
       <c r="B15" s="0" t="s">
         <v>79</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>109</v>
+        <v>75</v>
       </c>
       <c r="E15" s="0" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="E16" s="0" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0" t="s">
-        <v>28</v>
+        <v>64</v>
       </c>
       <c r="B17" s="0" t="s">
         <v>79</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="D17" s="0" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="E17" s="0" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B18" s="0" t="s">
         <v>79</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="D18" s="0" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="E18" s="0" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="B19" s="0" t="s">
+        <v>79</v>
+      </c>
+      <c r="C19" s="0" t="s">
+        <v>74</v>
+      </c>
+      <c r="D19" s="0" t="s">
+        <v>74</v>
+      </c>
+      <c r="E19" s="0" t="s">
         <v>75</v>
-      </c>
-      <c r="B19" s="0" t="s">
-        <v>79</v>
-      </c>
-      <c r="C19" s="0" t="s">
-        <v>79</v>
-      </c>
-      <c r="D19" s="0" t="s">
-        <v>83</v>
-      </c>
-      <c r="E19" s="0" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B20" s="0" t="s">
         <v>79</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="D20" s="0" t="s">
         <v>79</v>
       </c>
       <c r="E20" s="0" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0" t="s">
-        <v>92</v>
+        <v>59</v>
       </c>
       <c r="B21" s="0" t="s">
         <v>79</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="D21" s="0" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="E21" s="0" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
     </row>
   </sheetData>
@@ -6008,7 +5513,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H42"/>
+  <dimension ref="A1:H36"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -6048,178 +5553,178 @@
         <v>9</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>47</v>
+        <v>11</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C3" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="E3" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" s="0" t="s">
         <v>17</v>
       </c>
-      <c r="D3" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="F3" s="0" t="s">
-        <v>10</v>
-      </c>
       <c r="G3" s="0" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="H3" s="0" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="F4" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="G4" s="0" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="C4" s="0" t="s">
-        <v>101</v>
-      </c>
-      <c r="D4" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="F4" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="G4" s="0" t="s">
-        <v>13</v>
-      </c>
       <c r="H4" s="0" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>70</v>
+        <v>35</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>12</v>
+        <v>64</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="H5" s="0" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>10</v>
+        <v>35</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="F6" s="0" t="s">
-        <v>75</v>
+        <v>24</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H6" s="0" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B7" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>10</v>
+        <v>38</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>47</v>
+        <v>11</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H7" s="0" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B8" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>47</v>
+        <v>11</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F8" s="0" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G8" s="0" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="H8" s="0" t="s">
-        <v>31</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9">
@@ -6230,126 +5735,126 @@
         <v>9</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>101</v>
+        <v>88</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F9" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G9" s="0" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="H9" s="0" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>35</v>
+        <v>88</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F10" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G10" s="0" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="H10" s="0" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>93</v>
+        <v>11</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>10</v>
+        <v>48</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F11" s="0" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G11" s="0" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="H11" s="0" t="s">
-        <v>31</v>
+        <v>13</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>17</v>
+        <v>87</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F12" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G12" s="0" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="H12" s="0" t="s">
-        <v>31</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B13" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>96</v>
+        <v>10</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E13" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F13" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G13" s="0" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="H13" s="0" t="s">
-        <v>31</v>
+        <v>13</v>
       </c>
     </row>
     <row r="14">
@@ -6357,25 +5862,25 @@
         <v>39</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="C14" s="0" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>47</v>
+        <v>11</v>
       </c>
       <c r="E14" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F14" s="0" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G14" s="0" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="H14" s="0" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="15">
@@ -6383,25 +5888,25 @@
         <v>40</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>35</v>
+        <v>10</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E15" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F15" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G15" s="0" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="H15" s="0" t="s">
-        <v>31</v>
+        <v>13</v>
       </c>
     </row>
     <row r="16">
@@ -6409,701 +5914,545 @@
         <v>41</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="E16" s="0" t="s">
-        <v>50</v>
+        <v>11</v>
       </c>
       <c r="F16" s="0" t="s">
-        <v>21</v>
+        <v>42</v>
       </c>
       <c r="G16" s="0" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="H16" s="0" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="B17" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="C17" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="D17" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="E17" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="F17" s="0" t="s">
         <v>42</v>
       </c>
-      <c r="B17" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="C17" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="D17" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="E17" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="F17" s="0" t="s">
-        <v>10</v>
-      </c>
       <c r="G17" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H17" s="0" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C18" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="D18" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="E18" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="F18" s="0" t="s">
         <v>17</v>
       </c>
-      <c r="D18" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="E18" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="F18" s="0" t="s">
-        <v>10</v>
-      </c>
       <c r="G18" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H18" s="0" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D19" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E19" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F19" s="0" t="s">
-        <v>45</v>
+        <v>24</v>
       </c>
       <c r="G19" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H19" s="0" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>10</v>
+        <v>29</v>
       </c>
       <c r="D20" s="0" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="E20" s="0" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="F20" s="0" t="s">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="G20" s="0" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="H20" s="0" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>49</v>
+        <v>15</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D21" s="0" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="E21" s="0" t="s">
-        <v>10</v>
+        <v>44</v>
       </c>
       <c r="F21" s="0" t="s">
-        <v>10</v>
+        <v>42</v>
       </c>
       <c r="G21" s="0" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="H21" s="0" t="s">
-        <v>51</v>
+        <v>27</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="C22" s="0" t="s">
-        <v>10</v>
+        <v>38</v>
       </c>
       <c r="D22" s="0" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="E22" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F22" s="0" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G22" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H22" s="0" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="C23" s="0" t="s">
-        <v>10</v>
+        <v>29</v>
       </c>
       <c r="D23" s="0" t="s">
-        <v>84</v>
+        <v>11</v>
       </c>
       <c r="E23" s="0" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="F23" s="0" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="G23" s="0" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="H23" s="0" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="B24" s="0" t="s">
         <v>54</v>
       </c>
-      <c r="B24" s="0" t="s">
+      <c r="C24" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="D24" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="C24" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="D24" s="0" t="s">
-        <v>72</v>
-      </c>
       <c r="E24" s="0" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F24" s="0" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="G24" s="0" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="H24" s="0" t="s">
-        <v>14</v>
+        <v>55</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="C25" s="0" t="s">
-        <v>101</v>
+        <v>11</v>
       </c>
       <c r="D25" s="0" t="s">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="E25" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F25" s="0" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="G25" s="0" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="H25" s="0" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="C26" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D26" s="0" t="s">
-        <v>11</v>
+        <v>82</v>
       </c>
       <c r="E26" s="0" t="s">
-        <v>10</v>
+        <v>44</v>
       </c>
       <c r="F26" s="0" t="s">
-        <v>12</v>
+        <v>42</v>
       </c>
       <c r="G26" s="0" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="H26" s="0" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="C27" s="0" t="s">
-        <v>17</v>
+        <v>91</v>
       </c>
       <c r="D27" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E27" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F27" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G27" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H27" s="0" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="C28" s="0" t="s">
-        <v>94</v>
+        <v>11</v>
       </c>
       <c r="D28" s="0" t="s">
-        <v>10</v>
+        <v>82</v>
       </c>
       <c r="E28" s="0" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="F28" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G28" s="0" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="H28" s="0" t="s">
-        <v>31</v>
+        <v>13</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="C29" s="0" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="D29" s="0" t="s">
-        <v>10</v>
+        <v>48</v>
       </c>
       <c r="E29" s="0" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="F29" s="0" t="s">
-        <v>10</v>
+        <v>64</v>
       </c>
       <c r="G29" s="0" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="H29" s="0" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="C30" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D30" s="0" t="s">
-        <v>72</v>
+        <v>82</v>
       </c>
       <c r="E30" s="0" t="s">
-        <v>50</v>
+        <v>23</v>
       </c>
       <c r="F30" s="0" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G30" s="0" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="H30" s="0" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="C31" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D31" s="0" t="s">
         <v>26</v>
       </c>
       <c r="E31" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="F31" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="G31" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="H31" s="0" t="s">
         <v>27</v>
-      </c>
-      <c r="F31" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="G31" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="H31" s="0" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B32" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C32" s="0" t="s">
-        <v>33</v>
+        <v>11</v>
       </c>
       <c r="D32" s="0" t="s">
-        <v>10</v>
+        <v>82</v>
       </c>
       <c r="E32" s="0" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="F32" s="0" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G32" s="0" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="H32" s="0" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="0" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B33" s="0" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="C33" s="0" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="D33" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E33" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F33" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G33" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H33" s="0" t="s">
-        <v>31</v>
+        <v>13</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="0" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="B34" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C34" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D34" s="0" t="s">
-        <v>47</v>
+        <v>82</v>
       </c>
       <c r="E34" s="0" t="s">
-        <v>10</v>
+        <v>44</v>
       </c>
       <c r="F34" s="0" t="s">
-        <v>12</v>
+        <v>42</v>
       </c>
       <c r="G34" s="0" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="H34" s="0" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="0" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B35" s="0" t="s">
-        <v>49</v>
+        <v>15</v>
       </c>
       <c r="C35" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D35" s="0" t="s">
-        <v>11</v>
+        <v>35</v>
       </c>
       <c r="E35" s="0" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="F35" s="0" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="G35" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H35" s="0" t="s">
-        <v>51</v>
+        <v>13</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="0" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="B36" s="0" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C36" s="0" t="s">
         <v>10</v>
       </c>
       <c r="D36" s="0" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="E36" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="F36" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="G36" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="H36" s="0" t="s">
         <v>27</v>
-      </c>
-      <c r="F36" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="G36" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="H36" s="0" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="0" t="s">
-        <v>67</v>
-      </c>
-      <c r="B37" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="C37" s="0" t="s">
-        <v>100</v>
-      </c>
-      <c r="D37" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="E37" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="F37" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="G37" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="H37" s="0" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="0" t="s">
-        <v>68</v>
-      </c>
-      <c r="B38" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="C38" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="D38" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="E38" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="F38" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="G38" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="H38" s="0" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="0" t="s">
-        <v>69</v>
-      </c>
-      <c r="B39" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="C39" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="D39" s="0" t="s">
-        <v>72</v>
-      </c>
-      <c r="E39" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="F39" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="G39" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="H39" s="0" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="0" t="s">
-        <v>71</v>
-      </c>
-      <c r="B40" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="C40" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="D40" s="0" t="s">
-        <v>72</v>
-      </c>
-      <c r="E40" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="F40" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="G40" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="H40" s="0" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="0" t="s">
-        <v>73</v>
-      </c>
-      <c r="B41" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="C41" s="0" t="s">
-        <v>35</v>
-      </c>
-      <c r="D41" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="E41" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="F41" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="G41" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="H41" s="0" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" s="0" t="s">
-        <v>74</v>
-      </c>
-      <c r="B42" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="C42" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="D42" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="E42" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="F42" s="0" t="s">
-        <v>92</v>
-      </c>
-      <c r="G42" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="H42" s="0" t="s">
-        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -7121,32 +6470,32 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>19</v>
+        <v>48</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="C3" s="0" t="s">
         <v>79</v>
@@ -7154,10 +6503,10 @@
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="C4" s="0" t="s">
         <v>79</v>
@@ -7165,29 +6514,29 @@
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>91</v>
+        <v>75</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="B6" s="0" t="s">
         <v>79</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="B7" s="0" t="s">
         <v>79</v>
@@ -7198,7 +6547,7 @@
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="B8" s="0" t="s">
         <v>79</v>
@@ -7209,21 +6558,21 @@
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>72</v>
+        <v>82</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>70</v>
+        <v>16</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="C10" s="0" t="s">
         <v>79</v>
@@ -7231,7 +6580,7 @@
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B11" s="0" t="s">
         <v>79</v>
@@ -7242,7 +6591,7 @@
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="B12" s="0" t="s">
         <v>79</v>
@@ -7253,10 +6602,10 @@
     </row>
     <row r="13">
       <c r="A13" s="0" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="C13" s="0" t="s">
         <v>79</v>
@@ -7264,65 +6613,65 @@
     </row>
     <row r="14">
       <c r="A14" s="0" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0" t="s">
-        <v>20</v>
+        <v>44</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>91</v>
+        <v>75</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>89</v>
+        <v>74</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0" t="s">
-        <v>28</v>
+        <v>64</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0" t="s">
-        <v>75</v>
+        <v>45</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="C19" s="0" t="s">
         <v>79</v>
@@ -7330,21 +6679,21 @@
     </row>
     <row r="20">
       <c r="A20" s="0" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0" t="s">
-        <v>92</v>
+        <v>59</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C21" s="0" t="s">
         <v>79</v>
@@ -7352,7 +6701,7 @@
     </row>
     <row r="22">
       <c r="A22" s="0" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B22" s="0" t="s">
         <v>79</v>
@@ -7363,51 +6712,51 @@
     </row>
     <row r="23">
       <c r="A23" s="0" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="B23" s="0" t="s">
         <v>79</v>
       </c>
       <c r="C23" s="0" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="C24" s="0" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="B25" s="0" t="s">
         <v>79</v>
       </c>
       <c r="C25" s="0" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="C26" s="0" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="B27" s="0" t="s">
         <v>79</v>
@@ -7418,18 +6767,18 @@
     </row>
     <row r="28">
       <c r="A28" s="0" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="B28" s="0" t="s">
         <v>79</v>
       </c>
       <c r="C28" s="0" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="B29" s="0" t="s">
         <v>79</v>
@@ -7440,7 +6789,7 @@
     </row>
     <row r="30">
       <c r="A30" s="0" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="B30" s="0" t="s">
         <v>79</v>
@@ -7451,7 +6800,7 @@
     </row>
     <row r="31">
       <c r="A31" s="0" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="B31" s="0" t="s">
         <v>79</v>
@@ -7462,7 +6811,7 @@
     </row>
     <row r="32">
       <c r="A32" s="0" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="B32" s="0" t="s">
         <v>79</v>
@@ -7473,7 +6822,7 @@
     </row>
     <row r="33">
       <c r="A33" s="0" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B33" s="0" t="s">
         <v>79</v>
@@ -7484,7 +6833,7 @@
     </row>
     <row r="34">
       <c r="A34" s="0" t="s">
-        <v>101</v>
+        <v>38</v>
       </c>
       <c r="B34" s="0" t="s">
         <v>79</v>
@@ -7508,92 +6857,92 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>89</v>
+        <v>76</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>19</v>
+        <v>48</v>
       </c>
       <c r="B3" s="0" t="s">
         <v>79</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="D3" s="0" t="s">
         <v>79</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>90</v>
+        <v>76</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="B5" s="0" t="s">
         <v>79</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>89</v>
+        <v>75</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="B6" s="0" t="s">
         <v>79</v>
@@ -7602,15 +6951,15 @@
         <v>79</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="B7" s="0" t="s">
         <v>79</v>
@@ -7627,7 +6976,7 @@
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="B8" s="0" t="s">
         <v>79</v>
@@ -7644,41 +6993,41 @@
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>72</v>
+        <v>82</v>
       </c>
       <c r="B9" s="0" t="s">
         <v>79</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>70</v>
+        <v>16</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B11" s="0" t="s">
         <v>79</v>
@@ -7695,7 +7044,7 @@
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="B12" s="0" t="s">
         <v>79</v>
@@ -7712,155 +7061,155 @@
     </row>
     <row r="13">
       <c r="A13" s="0" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="B13" s="0" t="s">
         <v>79</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="D13" s="0" t="s">
         <v>79</v>
       </c>
       <c r="E13" s="0" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>91</v>
+        <v>77</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>91</v>
+        <v>77</v>
       </c>
       <c r="E14" s="0" t="s">
-        <v>81</v>
+        <v>100</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0" t="s">
-        <v>20</v>
+        <v>44</v>
       </c>
       <c r="B15" s="0" t="s">
         <v>79</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>91</v>
+        <v>77</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>91</v>
+        <v>76</v>
       </c>
       <c r="E15" s="0" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="B16" s="0" t="s">
         <v>79</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>91</v>
+        <v>75</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>90</v>
+        <v>74</v>
       </c>
       <c r="E16" s="0" t="s">
-        <v>106</v>
+        <v>76</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0" t="s">
-        <v>28</v>
+        <v>64</v>
       </c>
       <c r="B17" s="0" t="s">
         <v>79</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="D17" s="0" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="E17" s="0" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="D18" s="0" t="s">
-        <v>91</v>
+        <v>76</v>
       </c>
       <c r="E18" s="0" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0" t="s">
-        <v>75</v>
+        <v>45</v>
       </c>
       <c r="B19" s="0" t="s">
         <v>79</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="D19" s="0" t="s">
         <v>79</v>
       </c>
       <c r="E19" s="0" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B20" s="0" t="s">
         <v>79</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="D20" s="0" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="E20" s="0" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0" t="s">
-        <v>92</v>
+        <v>59</v>
       </c>
       <c r="B21" s="0" t="s">
         <v>79</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="D21" s="0" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="E21" s="0" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
     </row>
   </sheetData>
